--- a/Output/Ship.data Output - Cycle1-vertical.xlsx
+++ b/Output/Ship.data Output - Cycle1-vertical.xlsx
@@ -1063,79 +1063,79 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>31.824174488954</v>
+        <v>31.7851575221953</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0000000846114488478181</v>
+        <v>0.0000000846917680190639</v>
       </c>
       <c r="AW2" t="n">
         <v>2</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00000000266158660924812</v>
+        <v>0.000000002667309977499</v>
       </c>
       <c r="AY2" t="n">
         <v>2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0000000014975820074654</v>
+        <v>0.00000000150190759420976</v>
       </c>
       <c r="BA2" t="n">
         <v>2</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0000000000207520461574934</v>
+        <v>0.0000000000208181479488474</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
       </c>
       <c r="BD2" t="n">
-        <v>50.7197450271464</v>
+        <v>50.8097459136088</v>
       </c>
       <c r="BE2" t="n">
         <v>2</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00000000246290493803884</v>
+        <v>0.00000000167606121229647</v>
       </c>
       <c r="BG2" t="n">
         <v>2</v>
       </c>
       <c r="BH2" t="n">
-        <v>30.943304112201</v>
+        <v>28.4490109680058</v>
       </c>
       <c r="BI2" t="n">
         <v>2</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.000000128691936715237</v>
+        <v>0.000000074223493989734</v>
       </c>
       <c r="BK2" t="n">
         <v>2</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0000000040916040018774</v>
+        <v>0.00000000260753891308509</v>
       </c>
       <c r="BM2" t="n">
         <v>2</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.00000000246290493803884</v>
+        <v>0.00000000167606121229647</v>
       </c>
       <c r="BO2" t="n">
         <v>2</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0000000000352827740426995</v>
+        <v>0.0000000000227787277354245</v>
       </c>
       <c r="BQ2" t="n">
         <v>2</v>
       </c>
       <c r="BR2" t="n">
-        <v>53.9430736153696</v>
+        <v>50.8320921922716</v>
       </c>
       <c r="BS2" t="n">
         <v>2</v>
@@ -1210,7 +1210,7 @@
         <v>28.8592602156994</v>
       </c>
       <c r="CQ2" t="n">
-        <v>18.7145258144547</v>
+        <v>77.0923804320943</v>
       </c>
     </row>
     <row r="3">
@@ -1350,79 +1350,79 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>31.8209369898582</v>
+        <v>31.7815443009268</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0000000846818326038205</v>
+        <v>0.0000000847614024891852</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.00000000266407061602466</v>
+        <v>0.00000000266980898900769</v>
       </c>
       <c r="AY3" t="n">
         <v>2</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.00000000149896952303235</v>
+        <v>0.00000000150333123946064</v>
       </c>
       <c r="BA3" t="n">
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0000000000207710914767674</v>
+        <v>0.0000000000208369797790906</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
       </c>
       <c r="BD3" t="n">
-        <v>50.7197228759839</v>
+        <v>50.8097819597984</v>
       </c>
       <c r="BE3" t="n">
         <v>2</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.00000000246754318885811</v>
+        <v>0.00000000167654890395332</v>
       </c>
       <c r="BG3" t="n">
         <v>2</v>
       </c>
       <c r="BH3" t="n">
-        <v>30.9566276542585</v>
+        <v>28.449219410864</v>
       </c>
       <c r="BI3" t="n">
         <v>2</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.000000129014202961888</v>
+        <v>0.0000000742565630328606</v>
       </c>
       <c r="BK3" t="n">
         <v>2</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.00000000410061871770755</v>
+        <v>0.00000000260867340210896</v>
       </c>
       <c r="BM3" t="n">
         <v>2</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.00000000246754318885811</v>
+        <v>0.00000000167654890395332</v>
       </c>
       <c r="BO3" t="n">
         <v>2</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0000000000353528374384242</v>
+        <v>0.0000000000227846435666396</v>
       </c>
       <c r="BQ3" t="n">
         <v>2</v>
       </c>
       <c r="BR3" t="n">
-        <v>53.9567829670012</v>
+        <v>50.8285445759145</v>
       </c>
       <c r="BS3" t="n">
         <v>2</v>
@@ -1497,7 +1497,7 @@
         <v>28.1392541193622</v>
       </c>
       <c r="CQ3" t="n">
-        <v>18.379354498228</v>
+        <v>77.1066218163778</v>
       </c>
     </row>
     <row r="4">
@@ -1637,79 +1637,79 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>31.8176994907728</v>
+        <v>31.7779310796698</v>
       </c>
       <c r="AU4" t="n">
         <v>2</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0000000847522163595991</v>
+        <v>0.000000084831036959085</v>
       </c>
       <c r="AW4" t="n">
         <v>2</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0000000026665546227933</v>
+        <v>0.00000000267230800050843</v>
       </c>
       <c r="AY4" t="n">
         <v>2</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.00000000150035703859489</v>
+        <v>0.000000001504754884707</v>
       </c>
       <c r="BA4" t="n">
         <v>2</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0000000000207901367959809</v>
+        <v>0.0000000000208558116092739</v>
       </c>
       <c r="BC4" t="n">
         <v>2</v>
       </c>
       <c r="BD4" t="n">
-        <v>50.7197007248214</v>
+        <v>50.8098180059878</v>
       </c>
       <c r="BE4" t="n">
         <v>2</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.00000000247218143966263</v>
+        <v>0.00000000167703659560862</v>
       </c>
       <c r="BG4" t="n">
         <v>2</v>
       </c>
       <c r="BH4" t="n">
-        <v>30.9699511962735</v>
+        <v>28.4494278537215</v>
       </c>
       <c r="BI4" t="n">
         <v>2</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.000000129336469207514</v>
+        <v>0.000000074289632075882</v>
       </c>
       <c r="BK4" t="n">
         <v>2</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.00000000410963343350904</v>
+        <v>0.00000000260980789112923</v>
       </c>
       <c r="BM4" t="n">
         <v>2</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.00000000247218143966263</v>
+        <v>0.00000000167703659560862</v>
       </c>
       <c r="BO4" t="n">
         <v>2</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0000000000354229008339262</v>
+        <v>0.000000000022790559397836</v>
       </c>
       <c r="BQ4" t="n">
         <v>2</v>
       </c>
       <c r="BR4" t="n">
-        <v>53.9704923185892</v>
+        <v>50.8249969595686</v>
       </c>
       <c r="BS4" t="n">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>27.4056193948497</v>
       </c>
       <c r="CQ4" t="n">
-        <v>18.0360500516743</v>
+        <v>77.0886559144252</v>
       </c>
     </row>
     <row r="5">
@@ -1924,79 +1924,79 @@
         <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>31.8151094914859</v>
+        <v>31.7750405026435</v>
       </c>
       <c r="AU5" t="n">
         <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0000000848085233646248</v>
+        <v>0.0000000848867445354034</v>
       </c>
       <c r="AW5" t="n">
         <v>2</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.00000000266854182822243</v>
+        <v>0.00000000267430720972332</v>
       </c>
       <c r="AY5" t="n">
         <v>2</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.00000000150146705105286</v>
+        <v>0.00000000150589380091223</v>
       </c>
       <c r="BA5" t="n">
         <v>2</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0000000000208053730514607</v>
+        <v>0.0000000000208708770735283</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
       </c>
       <c r="BD5" t="n">
-        <v>50.7196830038913</v>
+        <v>50.8098468429396</v>
       </c>
       <c r="BE5" t="n">
         <v>2</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.00000000247589204033279</v>
+        <v>0.00000000167742674893565</v>
       </c>
       <c r="BG5" t="n">
         <v>2</v>
       </c>
       <c r="BH5" t="n">
-        <v>30.9806100299618</v>
+        <v>28.4495946080087</v>
       </c>
       <c r="BI5" t="n">
         <v>2</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.000000129594282205859</v>
+        <v>0.0000000743160873104883</v>
       </c>
       <c r="BK5" t="n">
         <v>2</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.00000000411684520620182</v>
+        <v>0.00000000261071548235194</v>
       </c>
       <c r="BM5" t="n">
         <v>2</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.00000000247589204033279</v>
+        <v>0.00000000167742674893565</v>
       </c>
       <c r="BO5" t="n">
         <v>2</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0000000000354789515507287</v>
+        <v>0.0000000000227952920628269</v>
       </c>
       <c r="BQ5" t="n">
         <v>2</v>
       </c>
       <c r="BR5" t="n">
-        <v>53.981459799938</v>
+        <v>50.8221588664717</v>
       </c>
       <c r="BS5" t="n">
         <v>2</v>
@@ -2071,7 +2071,7 @@
         <v>26.7612000393941</v>
       </c>
       <c r="CQ5" t="n">
-        <v>17.7238410744451</v>
+        <v>76.9122568915949</v>
       </c>
     </row>
     <row r="6">
@@ -2211,79 +2211,79 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>31.8118719923902</v>
+        <v>31.771427281375</v>
       </c>
       <c r="AU6" t="n">
         <v>2</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0000000848789071206272</v>
+        <v>0.0000000849563790055246</v>
       </c>
       <c r="AW6" t="n">
         <v>2</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.00000000267102583499897</v>
+        <v>0.00000000267680622123201</v>
       </c>
       <c r="AY6" t="n">
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.00000000150285456661981</v>
+        <v>0.00000000150731744616312</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0000000000208244183707348</v>
+        <v>0.0000000000208897089037714</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
       </c>
       <c r="BD6" t="n">
-        <v>50.7196608527288</v>
+        <v>50.8098828891292</v>
       </c>
       <c r="BE6" t="n">
         <v>2</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.00000000248053029115206</v>
+        <v>0.00000000167791444059251</v>
       </c>
       <c r="BG6" t="n">
         <v>2</v>
       </c>
       <c r="BH6" t="n">
-        <v>30.9939335720193</v>
+        <v>28.449803050867</v>
       </c>
       <c r="BI6" t="n">
         <v>2</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.00000012991654845251</v>
+        <v>0.0000000743491563536148</v>
       </c>
       <c r="BK6" t="n">
         <v>2</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.00000000412585992203197</v>
+        <v>0.00000000261184997137581</v>
       </c>
       <c r="BM6" t="n">
         <v>2</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.00000000248053029115206</v>
+        <v>0.00000000167791444059251</v>
       </c>
       <c r="BO6" t="n">
         <v>2</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.0000000000355490149464534</v>
+        <v>0.0000000000228012078940421</v>
       </c>
       <c r="BQ6" t="n">
         <v>2</v>
       </c>
       <c r="BR6" t="n">
-        <v>53.9951691515696</v>
+        <v>50.8186112501145</v>
       </c>
       <c r="BS6" t="n">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>25.9993776664356</v>
       </c>
       <c r="CQ6" t="n">
-        <v>17.362729458702</v>
+        <v>76.814874151256</v>
       </c>
     </row>
     <row r="7">
@@ -2498,79 +2498,79 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>31.8086344933048</v>
+        <v>31.767814060118</v>
       </c>
       <c r="AU7" t="n">
         <v>2</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.0000000849492908764059</v>
+        <v>0.0000000850260134754245</v>
       </c>
       <c r="AW7" t="n">
         <v>2</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.00000000267350984176761</v>
+        <v>0.00000000267930523273275</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.00000000150424208218235</v>
+        <v>0.00000000150874109140948</v>
       </c>
       <c r="BA7" t="n">
         <v>2</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0000000000208434636899483</v>
+        <v>0.0000000000209085407339547</v>
       </c>
       <c r="BC7" t="n">
         <v>2</v>
       </c>
       <c r="BD7" t="n">
-        <v>50.7196387015664</v>
+        <v>50.8099189353186</v>
       </c>
       <c r="BE7" t="n">
         <v>2</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.00000000248516854195659</v>
+        <v>0.00000000167840213224781</v>
       </c>
       <c r="BG7" t="n">
         <v>2</v>
       </c>
       <c r="BH7" t="n">
-        <v>31.0072571140343</v>
+        <v>28.4500114937245</v>
       </c>
       <c r="BI7" t="n">
         <v>2</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.000000130238814698136</v>
+        <v>0.0000000743822253966362</v>
       </c>
       <c r="BK7" t="n">
         <v>2</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.00000000413487463783346</v>
+        <v>0.00000000261298446039608</v>
       </c>
       <c r="BM7" t="n">
         <v>2</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.00000000248516854195659</v>
+        <v>0.00000000167840213224781</v>
       </c>
       <c r="BO7" t="n">
         <v>2</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0000000000356190783419554</v>
+        <v>0.0000000000228071237252384</v>
       </c>
       <c r="BQ7" t="n">
         <v>2</v>
       </c>
       <c r="BR7" t="n">
-        <v>54.0088785031576</v>
+        <v>50.8150636337687</v>
       </c>
       <c r="BS7" t="n">
         <v>2</v>
@@ -2645,7 +2645,7 @@
         <v>25.2300857771588</v>
       </c>
       <c r="CQ7" t="n">
-        <v>16.9970183476214</v>
+        <v>76.6950097418231</v>
       </c>
     </row>
     <row r="8">
@@ -2785,79 +2785,79 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>31.8060444940179</v>
+        <v>31.7649234830917</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0000000850055978814315</v>
+        <v>0.0000000850817210517428</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.00000000267549704719674</v>
+        <v>0.00000000268130444194765</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.00000000150535209464032</v>
+        <v>0.00000000150988000761471</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0000000000208586999454281</v>
+        <v>0.0000000000209236061982092</v>
       </c>
       <c r="BC8" t="n">
         <v>2</v>
       </c>
       <c r="BD8" t="n">
-        <v>50.7196209806363</v>
+        <v>50.8099477722704</v>
       </c>
       <c r="BE8" t="n">
         <v>2</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.00000000248887914262675</v>
+        <v>0.00000000167879228557484</v>
       </c>
       <c r="BG8" t="n">
         <v>2</v>
       </c>
       <c r="BH8" t="n">
-        <v>31.0179159477226</v>
+        <v>28.4501782480117</v>
       </c>
       <c r="BI8" t="n">
         <v>2</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.000000130496627696481</v>
+        <v>0.0000000744086806312426</v>
       </c>
       <c r="BK8" t="n">
         <v>2</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.00000000414208641052624</v>
+        <v>0.00000000261389205161878</v>
       </c>
       <c r="BM8" t="n">
         <v>2</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.00000000248887914262675</v>
+        <v>0.00000000167879228557484</v>
       </c>
       <c r="BO8" t="n">
         <v>2</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0000000000356751290587579</v>
+        <v>0.0000000000228118563902293</v>
       </c>
       <c r="BQ8" t="n">
         <v>2</v>
       </c>
       <c r="BR8" t="n">
-        <v>54.0198459845065</v>
+        <v>50.8122255406717</v>
       </c>
       <c r="BS8" t="n">
         <v>2</v>
@@ -2932,7 +2932,7 @@
         <v>24.6388032611002</v>
       </c>
       <c r="CQ8" t="n">
-        <v>16.7210846702372</v>
+        <v>76.6734783836398</v>
       </c>
     </row>
     <row r="9">
@@ -3072,79 +3072,79 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>31.8028069949222</v>
+        <v>31.7613102618232</v>
       </c>
       <c r="AU9" t="n">
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.000000085075981637434</v>
+        <v>0.000000085151355521864</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.00000000267798105397328</v>
+        <v>0.00000000268380345345633</v>
       </c>
       <c r="AY9" t="n">
         <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.00000000150673961020727</v>
+        <v>0.00000000151130365286559</v>
       </c>
       <c r="BA9" t="n">
         <v>2</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0000000000208777452647021</v>
+        <v>0.0000000000209424380284523</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
       </c>
       <c r="BD9" t="n">
-        <v>50.7195988294738</v>
+        <v>50.80998381846</v>
       </c>
       <c r="BE9" t="n">
         <v>2</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.00000000249351739344602</v>
+        <v>0.00000000167927997723169</v>
       </c>
       <c r="BG9" t="n">
         <v>2</v>
       </c>
       <c r="BH9" t="n">
-        <v>31.0312394897801</v>
+        <v>28.45038669087</v>
       </c>
       <c r="BI9" t="n">
         <v>2</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.000000130818893943132</v>
+        <v>0.0000000744417496743691</v>
       </c>
       <c r="BK9" t="n">
         <v>2</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.00000000415110112635639</v>
+        <v>0.00000000261502654064266</v>
       </c>
       <c r="BM9" t="n">
         <v>2</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.00000000249351739344602</v>
+        <v>0.00000000167927997723169</v>
       </c>
       <c r="BO9" t="n">
         <v>2</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0000000000357451924544826</v>
+        <v>0.0000000000228177722214445</v>
       </c>
       <c r="BQ9" t="n">
         <v>2</v>
       </c>
       <c r="BR9" t="n">
-        <v>54.033555336138</v>
+        <v>50.8086779243146</v>
       </c>
       <c r="BS9" t="n">
         <v>2</v>
@@ -3219,7 +3219,7 @@
         <v>23.8794524570201</v>
       </c>
       <c r="CQ9" t="n">
-        <v>16.3629504042653</v>
+        <v>76.585718358976</v>
       </c>
     </row>
     <row r="10">
@@ -3359,79 +3359,79 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>31.7995694958265</v>
+        <v>31.7576970405547</v>
       </c>
       <c r="AU10" t="n">
         <v>2</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0000000851463653934364</v>
+        <v>0.0000000852209899919853</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.00000000268046506074981</v>
+        <v>0.00000000268630246496502</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.00000000150812712577422</v>
+        <v>0.00000000151272729811647</v>
       </c>
       <c r="BA10" t="n">
         <v>2</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0000000000208967905839762</v>
+        <v>0.0000000000209612698586955</v>
       </c>
       <c r="BC10" t="n">
         <v>2</v>
       </c>
       <c r="BD10" t="n">
-        <v>50.7195766783113</v>
+        <v>50.8100198646495</v>
       </c>
       <c r="BE10" t="n">
         <v>2</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.00000000249815564426529</v>
+        <v>0.00000000167976766888854</v>
       </c>
       <c r="BG10" t="n">
         <v>2</v>
       </c>
       <c r="BH10" t="n">
-        <v>31.0445630318375</v>
+        <v>28.4505951337282</v>
       </c>
       <c r="BI10" t="n">
         <v>2</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.000000131141160189783</v>
+        <v>0.0000000744748187174956</v>
       </c>
       <c r="BK10" t="n">
         <v>2</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.00000000416011584218654</v>
+        <v>0.00000000261616102966653</v>
       </c>
       <c r="BM10" t="n">
         <v>2</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.00000000249815564426529</v>
+        <v>0.00000000167976766888854</v>
       </c>
       <c r="BO10" t="n">
         <v>2</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0000000000358152558502074</v>
+        <v>0.0000000000228236880526596</v>
       </c>
       <c r="BQ10" t="n">
         <v>2</v>
       </c>
       <c r="BR10" t="n">
-        <v>54.0472646877696</v>
+        <v>50.8051303079574</v>
       </c>
       <c r="BS10" t="n">
         <v>2</v>
@@ -3506,7 +3506,7 @@
         <v>23.1081212627032</v>
       </c>
       <c r="CQ10" t="n">
-        <v>15.9969973316992</v>
+        <v>76.4591694398496</v>
       </c>
     </row>
     <row r="11">
@@ -3646,79 +3646,79 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>31.7963319967411</v>
+        <v>31.7540838192977</v>
       </c>
       <c r="AU11" t="n">
         <v>2</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.000000085216749149215</v>
+        <v>0.0000000852906244618851</v>
       </c>
       <c r="AW11" t="n">
         <v>2</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.00000000268294906751846</v>
+        <v>0.00000000268880147646576</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.00000000150951464133676</v>
+        <v>0.00000000151415094336283</v>
       </c>
       <c r="BA11" t="n">
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0000000000209158359031897</v>
+        <v>0.0000000000209801016888788</v>
       </c>
       <c r="BC11" t="n">
         <v>2</v>
       </c>
       <c r="BD11" t="n">
-        <v>50.7195545271488</v>
+        <v>50.810055910839</v>
       </c>
       <c r="BE11" t="n">
         <v>2</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.00000000250279389506981</v>
+        <v>0.00000000168025536054384</v>
       </c>
       <c r="BG11" t="n">
         <v>2</v>
       </c>
       <c r="BH11" t="n">
-        <v>31.0578865738526</v>
+        <v>28.4508035765857</v>
       </c>
       <c r="BI11" t="n">
         <v>2</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.000000131463426435409</v>
+        <v>0.000000074507887760517</v>
       </c>
       <c r="BK11" t="n">
         <v>2</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.00000000416913055798803</v>
+        <v>0.0000000026172955186868</v>
       </c>
       <c r="BM11" t="n">
         <v>2</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.00000000250279389506981</v>
+        <v>0.00000000168025536054384</v>
       </c>
       <c r="BO11" t="n">
         <v>2</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0000000000358853192457094</v>
+        <v>0.000000000022829603883856</v>
       </c>
       <c r="BQ11" t="n">
         <v>2</v>
       </c>
       <c r="BR11" t="n">
-        <v>54.0609740393576</v>
+        <v>50.8015826916116</v>
       </c>
       <c r="BS11" t="n">
         <v>2</v>
@@ -3793,7 +3793,7 @@
         <v>22.3365316208382</v>
       </c>
       <c r="CQ11" t="n">
-        <v>15.6311631993582</v>
+        <v>76.3300727865417</v>
       </c>
     </row>
     <row r="12">
@@ -3933,79 +3933,79 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>31.7937419974542</v>
+        <v>31.7511932422715</v>
       </c>
       <c r="AU12" t="n">
         <v>2</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0000000852730561542407</v>
+        <v>0.0000000853463320382035</v>
       </c>
       <c r="AW12" t="n">
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.00000000268493627294758</v>
+        <v>0.00000000269080068568066</v>
       </c>
       <c r="AY12" t="n">
         <v>2</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.00000000151062465379473</v>
+        <v>0.00000000151528985956806</v>
       </c>
       <c r="BA12" t="n">
         <v>2</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0000000000209310721586695</v>
+        <v>0.0000000000209951671531332</v>
       </c>
       <c r="BC12" t="n">
         <v>2</v>
       </c>
       <c r="BD12" t="n">
-        <v>50.7195368062187</v>
+        <v>50.8100847477907</v>
       </c>
       <c r="BE12" t="n">
         <v>2</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.00000000250650449573997</v>
+        <v>0.00000000168064551387087</v>
       </c>
       <c r="BG12" t="n">
         <v>2</v>
       </c>
       <c r="BH12" t="n">
-        <v>31.0685454075409</v>
+        <v>28.450970330873</v>
       </c>
       <c r="BI12" t="n">
         <v>2</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.000000131721239433754</v>
+        <v>0.0000000745343429951233</v>
       </c>
       <c r="BK12" t="n">
         <v>2</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0000000041763423306808</v>
+        <v>0.00000000261820310990951</v>
       </c>
       <c r="BM12" t="n">
         <v>2</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.00000000250650449573997</v>
+        <v>0.00000000168064551387087</v>
       </c>
       <c r="BO12" t="n">
         <v>2</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0000000000359413699625119</v>
+        <v>0.0000000000228343365488469</v>
       </c>
       <c r="BQ12" t="n">
         <v>2</v>
       </c>
       <c r="BR12" t="n">
-        <v>54.0719415207065</v>
+        <v>50.7987445985146</v>
       </c>
       <c r="BS12" t="n">
         <v>2</v>
@@ -4080,7 +4080,7 @@
         <v>21.731605555917</v>
       </c>
       <c r="CQ12" t="n">
-        <v>15.3474185924707</v>
+        <v>76.2687621852184</v>
       </c>
     </row>
     <row r="13">
@@ -4220,79 +4220,79 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>31.7905044983585</v>
+        <v>31.747580021003</v>
       </c>
       <c r="AU13" t="n">
         <v>2</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0000000853434399102431</v>
+        <v>0.0000000854159665083247</v>
       </c>
       <c r="AW13" t="n">
         <v>2</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.00000000268742027972412</v>
+        <v>0.00000000269329969718935</v>
       </c>
       <c r="AY13" t="n">
         <v>2</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.00000000151201216936168</v>
+        <v>0.00000000151671350481895</v>
       </c>
       <c r="BA13" t="n">
         <v>2</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0000000000209501174779435</v>
+        <v>0.0000000000210139989833764</v>
       </c>
       <c r="BC13" t="n">
         <v>2</v>
       </c>
       <c r="BD13" t="n">
-        <v>50.7195146550562</v>
+        <v>50.8101207939803</v>
       </c>
       <c r="BE13" t="n">
         <v>2</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.00000000251114274655924</v>
+        <v>0.00000000168113320552773</v>
       </c>
       <c r="BG13" t="n">
         <v>2</v>
       </c>
       <c r="BH13" t="n">
-        <v>31.0818689495983</v>
+        <v>28.4511787737312</v>
       </c>
       <c r="BI13" t="n">
         <v>2</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.000000132043505680405</v>
+        <v>0.0000000745674120382499</v>
       </c>
       <c r="BK13" t="n">
         <v>2</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.00000000418535704651096</v>
+        <v>0.00000000261933759893338</v>
       </c>
       <c r="BM13" t="n">
         <v>2</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.00000000251114274655924</v>
+        <v>0.00000000168113320552773</v>
       </c>
       <c r="BO13" t="n">
         <v>2</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0000000000360114333582366</v>
+        <v>0.000000000022840252380062</v>
       </c>
       <c r="BQ13" t="n">
         <v>2</v>
       </c>
       <c r="BR13" t="n">
-        <v>54.0856508723381</v>
+        <v>50.7951969821575</v>
       </c>
       <c r="BS13" t="n">
         <v>2</v>
@@ -4367,7 +4367,7 @@
         <v>20.9591013708169</v>
       </c>
       <c r="CQ13" t="n">
-        <v>14.9815331747876</v>
+        <v>76.1342818590019</v>
       </c>
     </row>
     <row r="14">
@@ -4507,79 +4507,79 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>31.7872669992628</v>
+        <v>31.7439667997345</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0000000854138236662455</v>
+        <v>0.0000000854856009784459</v>
       </c>
       <c r="AW14" t="n">
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.00000000268990428650066</v>
+        <v>0.00000000269579870869803</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.00000000151339968492863</v>
+        <v>0.00000000151813715006983</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0000000000209691627972176</v>
+        <v>0.0000000000210328308136196</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
       </c>
       <c r="BD14" t="n">
-        <v>50.7194925038937</v>
+        <v>50.8101568401699</v>
       </c>
       <c r="BE14" t="n">
         <v>2</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.00000000251578099737851</v>
+        <v>0.00000000168162089718458</v>
       </c>
       <c r="BG14" t="n">
         <v>2</v>
       </c>
       <c r="BH14" t="n">
-        <v>31.0951924916557</v>
+        <v>28.4513872165894</v>
       </c>
       <c r="BI14" t="n">
         <v>2</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.000000132365771927056</v>
+        <v>0.0000000746004810813764</v>
       </c>
       <c r="BK14" t="n">
         <v>2</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.00000000419437176234111</v>
+        <v>0.00000000262047208795726</v>
       </c>
       <c r="BM14" t="n">
         <v>2</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.00000000251578099737851</v>
+        <v>0.00000000168162089718458</v>
       </c>
       <c r="BO14" t="n">
         <v>2</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.0000000000360814967539613</v>
+        <v>0.0000000000228461682112772</v>
       </c>
       <c r="BQ14" t="n">
         <v>2</v>
       </c>
       <c r="BR14" t="n">
-        <v>54.0993602239696</v>
+        <v>50.7916493658004</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
@@ -4654,7 +4654,7 @@
         <v>20.2157750043418</v>
       </c>
       <c r="CQ14" t="n">
-        <v>14.6370169981493</v>
+        <v>76.1072112974567</v>
       </c>
     </row>
     <row r="15">
@@ -4794,79 +4794,79 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>31.7840295001773</v>
+        <v>31.7403535784775</v>
       </c>
       <c r="AU15" t="n">
         <v>2</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0000000854842074220242</v>
+        <v>0.0000000855552354483458</v>
       </c>
       <c r="AW15" t="n">
         <v>2</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0000000026923882932693</v>
+        <v>0.00000000269829772019878</v>
       </c>
       <c r="AY15" t="n">
         <v>2</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.00000000151478720049117</v>
+        <v>0.00000000151956079531619</v>
       </c>
       <c r="BA15" t="n">
         <v>2</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.0000000000209882081164311</v>
+        <v>0.0000000000210516626438029</v>
       </c>
       <c r="BC15" t="n">
         <v>2</v>
       </c>
       <c r="BD15" t="n">
-        <v>50.7194703527312</v>
+        <v>50.8101928863593</v>
       </c>
       <c r="BE15" t="n">
         <v>2</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.00000000252041924818304</v>
+        <v>0.00000000168210858883988</v>
       </c>
       <c r="BG15" t="n">
         <v>2</v>
       </c>
       <c r="BH15" t="n">
-        <v>31.1085160336708</v>
+        <v>28.4515956594469</v>
       </c>
       <c r="BI15" t="n">
         <v>2</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.000000132688038172682</v>
+        <v>0.0000000746335501243978</v>
       </c>
       <c r="BK15" t="n">
         <v>2</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0000000042033864781426</v>
+        <v>0.00000000262160657697752</v>
       </c>
       <c r="BM15" t="n">
         <v>2</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.00000000252041924818304</v>
+        <v>0.00000000168210858883988</v>
       </c>
       <c r="BO15" t="n">
         <v>2</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0000000000361515601494633</v>
+        <v>0.0000000000228520840424735</v>
       </c>
       <c r="BQ15" t="n">
         <v>2</v>
       </c>
       <c r="BR15" t="n">
-        <v>54.1130695755576</v>
+        <v>50.7881017494545</v>
       </c>
       <c r="BS15" t="n">
         <v>2</v>
@@ -4941,7 +4941,7 @@
         <v>19.4477114640077</v>
       </c>
       <c r="CQ15" t="n">
-        <v>14.2751478319086</v>
+        <v>75.9890782440336</v>
       </c>
     </row>
     <row r="16">
@@ -5081,79 +5081,79 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>31.7814395008905</v>
+        <v>31.7374630014512</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0000000855405144270498</v>
+        <v>0.0000000856109430246641</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.00000000269437549869843</v>
+        <v>0.00000000270029692941367</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.00000000151589721294914</v>
+        <v>0.00000000152069971152142</v>
       </c>
       <c r="BA16" t="n">
         <v>2</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0000000000210034443719109</v>
+        <v>0.0000000000210667281080573</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
       </c>
       <c r="BD16" t="n">
-        <v>50.7194526318012</v>
+        <v>50.8102217233111</v>
       </c>
       <c r="BE16" t="n">
         <v>2</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.0000000025241298488532</v>
+        <v>0.00000000168249874216691</v>
       </c>
       <c r="BG16" t="n">
         <v>2</v>
       </c>
       <c r="BH16" t="n">
-        <v>31.1191748673591</v>
+        <v>28.4517624137342</v>
       </c>
       <c r="BI16" t="n">
         <v>2</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.000000132945851171027</v>
+        <v>0.0000000746600053590041</v>
       </c>
       <c r="BK16" t="n">
         <v>2</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.00000000421059825083538</v>
+        <v>0.00000000262251416820023</v>
       </c>
       <c r="BM16" t="n">
         <v>2</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.0000000025241298488532</v>
+        <v>0.00000000168249874216691</v>
       </c>
       <c r="BO16" t="n">
         <v>2</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.0000000000362076108662658</v>
+        <v>0.0000000000228568167074645</v>
       </c>
       <c r="BQ16" t="n">
         <v>2</v>
       </c>
       <c r="BR16" t="n">
-        <v>54.1240370569065</v>
+        <v>50.7852636563575</v>
       </c>
       <c r="BS16" t="n">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>18.8270203620392</v>
       </c>
       <c r="CQ16" t="n">
-        <v>13.9812477251538</v>
+        <v>75.8684571610458</v>
       </c>
     </row>
     <row r="17">
@@ -5368,79 +5368,79 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>31.7782020017948</v>
+        <v>31.7338497801827</v>
       </c>
       <c r="AU17" t="n">
         <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0000000856108981830522</v>
+        <v>0.0000000856805774947853</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.00000000269685950547497</v>
+        <v>0.00000000270279594092236</v>
       </c>
       <c r="AY17" t="n">
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.00000000151728472851609</v>
+        <v>0.0000000015221233567723</v>
       </c>
       <c r="BA17" t="n">
         <v>2</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0000000000210224896911849</v>
+        <v>0.0000000000210855599383005</v>
       </c>
       <c r="BC17" t="n">
         <v>2</v>
       </c>
       <c r="BD17" t="n">
-        <v>50.7194304806386</v>
+        <v>50.8102577695007</v>
       </c>
       <c r="BE17" t="n">
         <v>2</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.00000000252876809967247</v>
+        <v>0.00000000168298643382376</v>
       </c>
       <c r="BG17" t="n">
         <v>2</v>
       </c>
       <c r="BH17" t="n">
-        <v>31.1324984094165</v>
+        <v>28.4519708565924</v>
       </c>
       <c r="BI17" t="n">
         <v>2</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.000000133268117417678</v>
+        <v>0.0000000746930744021306</v>
       </c>
       <c r="BK17" t="n">
         <v>2</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.00000000421961296666553</v>
+        <v>0.0000000026236486572241</v>
       </c>
       <c r="BM17" t="n">
         <v>2</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.00000000252876809967247</v>
+        <v>0.00000000168298643382376</v>
       </c>
       <c r="BO17" t="n">
         <v>2</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0000000000362776742619905</v>
+        <v>0.0000000000228627325386796</v>
       </c>
       <c r="BQ17" t="n">
         <v>2</v>
       </c>
       <c r="BR17" t="n">
-        <v>54.1377464085381</v>
+        <v>50.7817160400004</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
@@ -5515,7 +5515,7 @@
         <v>18.0506864984898</v>
       </c>
       <c r="CQ17" t="n">
-        <v>13.6136313667585</v>
+        <v>75.7120417560219</v>
       </c>
     </row>
     <row r="18">
@@ -5655,79 +5655,79 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>31.774964502699</v>
+        <v>31.7302365589142</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0000000856812819390547</v>
+        <v>0.0000000857502119649066</v>
       </c>
       <c r="AW18" t="n">
         <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.00000000269934351225151</v>
+        <v>0.00000000270529495243104</v>
       </c>
       <c r="AY18" t="n">
         <v>2</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.00000000151867224408304</v>
+        <v>0.00000000152354700202319</v>
       </c>
       <c r="BA18" t="n">
         <v>2</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.000000000021041535010459</v>
+        <v>0.0000000000211043917685436</v>
       </c>
       <c r="BC18" t="n">
         <v>2</v>
       </c>
       <c r="BD18" t="n">
-        <v>50.7194083294761</v>
+        <v>50.8102938156902</v>
       </c>
       <c r="BE18" t="n">
         <v>2</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.00000000253340635049174</v>
+        <v>0.00000000168347412548061</v>
       </c>
       <c r="BG18" t="n">
         <v>2</v>
       </c>
       <c r="BH18" t="n">
-        <v>31.1458219514739</v>
+        <v>28.4521792994506</v>
       </c>
       <c r="BI18" t="n">
         <v>2</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.000000133590383664328</v>
+        <v>0.0000000747261434452572</v>
       </c>
       <c r="BK18" t="n">
         <v>2</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.00000000422862768249568</v>
+        <v>0.00000000262478314624798</v>
       </c>
       <c r="BM18" t="n">
         <v>2</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.00000000253340635049174</v>
+        <v>0.00000000168347412548061</v>
       </c>
       <c r="BO18" t="n">
         <v>2</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.0000000000363477376577153</v>
+        <v>0.0000000000228686483698948</v>
       </c>
       <c r="BQ18" t="n">
         <v>2</v>
       </c>
       <c r="BR18" t="n">
-        <v>54.1514557601697</v>
+        <v>50.7781684236433</v>
       </c>
       <c r="BS18" t="n">
         <v>2</v>
@@ -5802,7 +5802,7 @@
         <v>17.2783771830364</v>
       </c>
       <c r="CQ18" t="n">
-        <v>13.2491780642389</v>
+        <v>75.5684775675524</v>
       </c>
     </row>
     <row r="19">
@@ -5942,79 +5942,79 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>31.7717270036136</v>
+        <v>31.7266233376572</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.0000000857516656948333</v>
+        <v>0.0000000858198464348064</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.00000000270182751902015</v>
+        <v>0.00000000270779396393179</v>
       </c>
       <c r="AY19" t="n">
         <v>2</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.00000000152005975964558</v>
+        <v>0.00000000152497064726954</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.0000000000210605803296725</v>
+        <v>0.0000000000211232235987269</v>
       </c>
       <c r="BC19" t="n">
         <v>2</v>
       </c>
       <c r="BD19" t="n">
-        <v>50.7193861783137</v>
+        <v>50.8103298618797</v>
       </c>
       <c r="BE19" t="n">
         <v>2</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.00000000253804460129626</v>
+        <v>0.00000000168396181713591</v>
       </c>
       <c r="BG19" t="n">
         <v>2</v>
       </c>
       <c r="BH19" t="n">
-        <v>31.159145493489</v>
+        <v>28.4523877423082</v>
       </c>
       <c r="BI19" t="n">
         <v>2</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.000000133912649909955</v>
+        <v>0.0000000747592124882786</v>
       </c>
       <c r="BK19" t="n">
         <v>2</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.00000000423764239829717</v>
+        <v>0.00000000262591763526825</v>
       </c>
       <c r="BM19" t="n">
         <v>2</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.00000000253804460129626</v>
+        <v>0.00000000168396181713591</v>
       </c>
       <c r="BO19" t="n">
         <v>2</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.0000000000364178010532173</v>
+        <v>0.0000000000228745642010911</v>
       </c>
       <c r="BQ19" t="n">
         <v>2</v>
       </c>
       <c r="BR19" t="n">
-        <v>54.1651651117577</v>
+        <v>50.7746208072974</v>
       </c>
       <c r="BS19" t="n">
         <v>2</v>
@@ -6089,7 +6089,7 @@
         <v>16.5030097664056</v>
       </c>
       <c r="CQ19" t="n">
-        <v>12.8824775913422</v>
+        <v>75.4071032378716</v>
       </c>
     </row>
     <row r="20">
@@ -6229,79 +6229,79 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>31.7691370043267</v>
+        <v>31.7237327606309</v>
       </c>
       <c r="AU20" t="n">
         <v>2</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.000000085807972699859</v>
+        <v>0.0000000858755540111248</v>
       </c>
       <c r="AW20" t="n">
         <v>2</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.00000000270381472444928</v>
+        <v>0.00000000270979317314668</v>
       </c>
       <c r="AY20" t="n">
         <v>2</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.00000000152116977210355</v>
+        <v>0.00000000152610956347478</v>
       </c>
       <c r="BA20" t="n">
         <v>2</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.0000000000210758165851523</v>
+        <v>0.0000000000211382890629813</v>
       </c>
       <c r="BC20" t="n">
         <v>2</v>
       </c>
       <c r="BD20" t="n">
-        <v>50.7193684573836</v>
+        <v>50.8103586988315</v>
       </c>
       <c r="BE20" t="n">
         <v>2</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.00000000254175520196642</v>
+        <v>0.00000000168435197046295</v>
       </c>
       <c r="BG20" t="n">
         <v>2</v>
       </c>
       <c r="BH20" t="n">
-        <v>31.1698043271773</v>
+        <v>28.4525544965954</v>
       </c>
       <c r="BI20" t="n">
         <v>2</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.0000001341704629083</v>
+        <v>0.0000000747856677228849</v>
       </c>
       <c r="BK20" t="n">
         <v>2</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.00000000424485417098995</v>
+        <v>0.00000000262682522649095</v>
       </c>
       <c r="BM20" t="n">
         <v>2</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.00000000254175520196642</v>
+        <v>0.00000000168435197046295</v>
       </c>
       <c r="BO20" t="n">
         <v>2</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.0000000000364738517700198</v>
+        <v>0.000000000022879296866082</v>
       </c>
       <c r="BQ20" t="n">
         <v>2</v>
       </c>
       <c r="BR20" t="n">
-        <v>54.1761325931065</v>
+        <v>50.7717827142004</v>
       </c>
       <c r="BS20" t="n">
         <v>2</v>
@@ -6376,7 +6376,7 @@
         <v>15.8879127593846</v>
       </c>
       <c r="CQ20" t="n">
-        <v>12.5932439216715</v>
+        <v>75.2985619466276</v>
       </c>
     </row>
     <row r="21">
@@ -6516,79 +6516,79 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>31.765899505231</v>
+        <v>31.7201195393624</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0000000858783564558614</v>
+        <v>0.000000085945188481246</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.00000000270629873122581</v>
+        <v>0.00000000271229218465537</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.0000000015225572876705</v>
+        <v>0.00000000152753320872566</v>
       </c>
       <c r="BA21" t="n">
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.0000000000210948619044263</v>
+        <v>0.0000000000211571208932245</v>
       </c>
       <c r="BC21" t="n">
         <v>2</v>
       </c>
       <c r="BD21" t="n">
-        <v>50.7193463062211</v>
+        <v>50.810394745021</v>
       </c>
       <c r="BE21" t="n">
         <v>2</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.00000000254639345278569</v>
+        <v>0.0000000016848396621198</v>
       </c>
       <c r="BG21" t="n">
         <v>2</v>
       </c>
       <c r="BH21" t="n">
-        <v>31.1831278692347</v>
+        <v>28.4527629394536</v>
       </c>
       <c r="BI21" t="n">
         <v>2</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.00000013449272915495</v>
+        <v>0.0000000748187367660114</v>
       </c>
       <c r="BK21" t="n">
         <v>2</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.0000000042538688868201</v>
+        <v>0.00000000262795971551483</v>
       </c>
       <c r="BM21" t="n">
         <v>2</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.00000000254639345278569</v>
+        <v>0.0000000016848396621198</v>
       </c>
       <c r="BO21" t="n">
         <v>2</v>
       </c>
       <c r="BP21" t="n">
-        <v>0.0000000000365439151657445</v>
+        <v>0.0000000000228852126972972</v>
       </c>
       <c r="BQ21" t="n">
         <v>2</v>
       </c>
       <c r="BR21" t="n">
-        <v>54.1898419447381</v>
+        <v>50.7682350978433</v>
       </c>
       <c r="BS21" t="n">
         <v>2</v>
@@ -6663,7 +6663,7 @@
         <v>15.0741632829803</v>
       </c>
       <c r="CQ21" t="n">
-        <v>12.1955426159708</v>
+        <v>74.9366869024759</v>
       </c>
     </row>
     <row r="22">
@@ -6803,79 +6803,79 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>31.7626620061353</v>
+        <v>31.7165063180939</v>
       </c>
       <c r="AU22" t="n">
         <v>2</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.0000000859487402118638</v>
+        <v>0.0000000860148229513672</v>
       </c>
       <c r="AW22" t="n">
         <v>2</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.00000000270878273800235</v>
+        <v>0.00000000271479119616406</v>
       </c>
       <c r="AY22" t="n">
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.00000000152394480323745</v>
+        <v>0.00000000152895685397654</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.0000000000211139072237004</v>
+        <v>0.0000000000211759527234677</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
       </c>
       <c r="BD22" t="n">
-        <v>50.7193241550586</v>
+        <v>50.8104307912106</v>
       </c>
       <c r="BE22" t="n">
         <v>2</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.00000000255103170360496</v>
+        <v>0.00000000168532735377665</v>
       </c>
       <c r="BG22" t="n">
         <v>2</v>
       </c>
       <c r="BH22" t="n">
-        <v>31.1964514112922</v>
+        <v>28.4529713823118</v>
       </c>
       <c r="BI22" t="n">
         <v>2</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.000000134814995401601</v>
+        <v>0.0000000748518058091379</v>
       </c>
       <c r="BK22" t="n">
         <v>2</v>
       </c>
       <c r="BL22" t="n">
-        <v>0.00000000426288360265025</v>
+        <v>0.0000000026290942045387</v>
       </c>
       <c r="BM22" t="n">
         <v>2</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.00000000255103170360496</v>
+        <v>0.00000000168532735377665</v>
       </c>
       <c r="BO22" t="n">
         <v>2</v>
       </c>
       <c r="BP22" t="n">
-        <v>0.0000000000366139785614692</v>
+        <v>0.0000000000228911285285123</v>
       </c>
       <c r="BQ22" t="n">
         <v>2</v>
       </c>
       <c r="BR22" t="n">
-        <v>54.2035512963697</v>
+        <v>50.7646874814862</v>
       </c>
       <c r="BS22" t="n">
         <v>2</v>
@@ -6950,7 +6950,7 @@
         <v>14.1332493349222</v>
       </c>
       <c r="CQ22" t="n">
-        <v>11.6911465292744</v>
+        <v>73.8830724082889</v>
       </c>
     </row>
     <row r="23">
@@ -7090,79 +7090,79 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>31.7594245070499</v>
+        <v>31.7128930968369</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.0000000860191239676425</v>
+        <v>0.0000000860844574212671</v>
       </c>
       <c r="AW23" t="n">
         <v>2</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.00000000271126674477099</v>
+        <v>0.0000000027172902076648</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.00000000152533231879999</v>
+        <v>0.0000000015303804992229</v>
       </c>
       <c r="BA23" t="n">
         <v>2</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.0000000000211329525429139</v>
+        <v>0.000000000021194784553651</v>
       </c>
       <c r="BC23" t="n">
         <v>2</v>
       </c>
       <c r="BD23" t="n">
-        <v>50.7193020038961</v>
+        <v>50.8104668374</v>
       </c>
       <c r="BE23" t="n">
         <v>2</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.00000000255566995440948</v>
+        <v>0.00000000168581504543195</v>
       </c>
       <c r="BG23" t="n">
         <v>2</v>
       </c>
       <c r="BH23" t="n">
-        <v>31.2097749533072</v>
+        <v>28.4531798251694</v>
       </c>
       <c r="BI23" t="n">
         <v>2</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.000000135137261647227</v>
+        <v>0.0000000748848748521593</v>
       </c>
       <c r="BK23" t="n">
         <v>2</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.00000000427189831845174</v>
+        <v>0.00000000263022869355897</v>
       </c>
       <c r="BM23" t="n">
         <v>2</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.00000000255566995440948</v>
+        <v>0.00000000168581504543195</v>
       </c>
       <c r="BO23" t="n">
         <v>2</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.0000000000366840419569712</v>
+        <v>0.0000000000228970443597087</v>
       </c>
       <c r="BQ23" t="n">
         <v>2</v>
       </c>
       <c r="BR23" t="n">
-        <v>54.2172606479577</v>
+        <v>50.7611398651403</v>
       </c>
       <c r="BS23" t="n">
         <v>2</v>
@@ -7237,7 +7237,7 @@
         <v>13.2863681487371</v>
       </c>
       <c r="CQ23" t="n">
-        <v>11.2594617084748</v>
+        <v>73.2438184899208</v>
       </c>
     </row>
     <row r="24">
@@ -7377,79 +7377,79 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>31.756834507763</v>
+        <v>31.7100025198107</v>
       </c>
       <c r="AU24" t="n">
         <v>2</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.0000000860754309726681</v>
+        <v>0.0000000861401649975854</v>
       </c>
       <c r="AW24" t="n">
         <v>2</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.00000000271325395020012</v>
+        <v>0.00000000271928941687969</v>
       </c>
       <c r="AY24" t="n">
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.00000000152644233125796</v>
+        <v>0.00000000153151941542813</v>
       </c>
       <c r="BA24" t="n">
         <v>2</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.0000000000211481887983937</v>
+        <v>0.0000000000212098500179054</v>
       </c>
       <c r="BC24" t="n">
         <v>2</v>
       </c>
       <c r="BD24" t="n">
-        <v>50.719284282966</v>
+        <v>50.8104956743518</v>
       </c>
       <c r="BE24" t="n">
         <v>2</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.00000000255938055507965</v>
+        <v>0.00000000168620519875898</v>
       </c>
       <c r="BG24" t="n">
         <v>2</v>
       </c>
       <c r="BH24" t="n">
-        <v>31.2204337869955</v>
+        <v>28.4533465794566</v>
       </c>
       <c r="BI24" t="n">
         <v>2</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.000000135395074645572</v>
+        <v>0.0000000749113300867657</v>
       </c>
       <c r="BK24" t="n">
         <v>2</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.00000000427911009114452</v>
+        <v>0.00000000263113628478167</v>
       </c>
       <c r="BM24" t="n">
         <v>2</v>
       </c>
       <c r="BN24" t="n">
-        <v>0.00000000255938055507965</v>
+        <v>0.00000000168620519875898</v>
       </c>
       <c r="BO24" t="n">
         <v>2</v>
       </c>
       <c r="BP24" t="n">
-        <v>0.0000000000367400926737737</v>
+        <v>0.0000000000229017770246996</v>
       </c>
       <c r="BQ24" t="n">
         <v>2</v>
       </c>
       <c r="BR24" t="n">
-        <v>54.2282281293065</v>
+        <v>50.7583017720433</v>
       </c>
       <c r="BS24" t="n">
         <v>2</v>
@@ -7524,7 +7524,7 @@
         <v>12.6404905738766</v>
       </c>
       <c r="CQ24" t="n">
-        <v>10.9386090092511</v>
+        <v>72.870240707409</v>
       </c>
     </row>
     <row r="25">
@@ -7664,79 +7664,79 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>31.7535970086673</v>
+        <v>31.7063892985422</v>
       </c>
       <c r="AU25" t="n">
         <v>2</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.0000000861458147286706</v>
+        <v>0.0000000862097994677066</v>
       </c>
       <c r="AW25" t="n">
         <v>2</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.00000000271573795697666</v>
+        <v>0.00000000272178842838838</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.00000000152782984682491</v>
+        <v>0.00000000153294306067902</v>
       </c>
       <c r="BA25" t="n">
         <v>2</v>
       </c>
       <c r="BB25" t="n">
-        <v>0.0000000000211672341176677</v>
+        <v>0.0000000000212286818481486</v>
       </c>
       <c r="BC25" t="n">
         <v>2</v>
       </c>
       <c r="BD25" t="n">
-        <v>50.7192621318035</v>
+        <v>50.8105317205414</v>
       </c>
       <c r="BE25" t="n">
         <v>2</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.00000000256401880589891</v>
+        <v>0.00000000168669289041583</v>
       </c>
       <c r="BG25" t="n">
         <v>2</v>
       </c>
       <c r="BH25" t="n">
-        <v>31.233757329053</v>
+        <v>28.4535550223148</v>
       </c>
       <c r="BI25" t="n">
         <v>2</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0.000000135717340892223</v>
+        <v>0.0000000749443991298922</v>
       </c>
       <c r="BK25" t="n">
         <v>2</v>
       </c>
       <c r="BL25" t="n">
-        <v>0.00000000428812480697466</v>
+        <v>0.00000000263227077380555</v>
       </c>
       <c r="BM25" t="n">
         <v>2</v>
       </c>
       <c r="BN25" t="n">
-        <v>0.00000000256401880589891</v>
+        <v>0.00000000168669289041583</v>
       </c>
       <c r="BO25" t="n">
         <v>2</v>
       </c>
       <c r="BP25" t="n">
-        <v>0.0000000000368101560694985</v>
+        <v>0.0000000000229076928559147</v>
       </c>
       <c r="BQ25" t="n">
         <v>2</v>
       </c>
       <c r="BR25" t="n">
-        <v>54.2419374809381</v>
+        <v>50.7547541556862</v>
       </c>
       <c r="BS25" t="n">
         <v>2</v>
@@ -7811,7 +7811,7 @@
         <v>11.8807177165197</v>
       </c>
       <c r="CQ25" t="n">
-        <v>10.5773826425603</v>
+        <v>72.6538148911854</v>
       </c>
     </row>
     <row r="26">
@@ -7951,79 +7951,79 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>31.7503595095819</v>
+        <v>31.7027760772852</v>
       </c>
       <c r="AU26" t="n">
         <v>2</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.0000000862161984844492</v>
+        <v>0.0000000862794339376065</v>
       </c>
       <c r="AW26" t="n">
         <v>2</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.0000000027182219637453</v>
+        <v>0.00000000272428743988912</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.00000000152921736238745</v>
+        <v>0.00000000153436670592537</v>
       </c>
       <c r="BA26" t="n">
         <v>2</v>
       </c>
       <c r="BB26" t="n">
-        <v>0.0000000000211862794368813</v>
+        <v>0.0000000000212475136783319</v>
       </c>
       <c r="BC26" t="n">
         <v>2</v>
       </c>
       <c r="BD26" t="n">
-        <v>50.7192399806411</v>
+        <v>50.8105677667308</v>
       </c>
       <c r="BE26" t="n">
         <v>2</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.00000000256865705670344</v>
+        <v>0.00000000168718058207113</v>
       </c>
       <c r="BG26" t="n">
         <v>2</v>
       </c>
       <c r="BH26" t="n">
-        <v>31.247080871068</v>
+        <v>28.4537634651724</v>
       </c>
       <c r="BI26" t="n">
         <v>2</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0.000000136039607137849</v>
+        <v>0.0000000749774681729136</v>
       </c>
       <c r="BK26" t="n">
         <v>2</v>
       </c>
       <c r="BL26" t="n">
-        <v>0.00000000429713952277616</v>
+        <v>0.00000000263340526282582</v>
       </c>
       <c r="BM26" t="n">
         <v>2</v>
       </c>
       <c r="BN26" t="n">
-        <v>0.00000000256865705670344</v>
+        <v>0.00000000168718058207113</v>
       </c>
       <c r="BO26" t="n">
         <v>2</v>
       </c>
       <c r="BP26" t="n">
-        <v>0.0000000000368802194650005</v>
+        <v>0.0000000000229136086871111</v>
       </c>
       <c r="BQ26" t="n">
         <v>2</v>
       </c>
       <c r="BR26" t="n">
-        <v>54.2556468325261</v>
+        <v>50.7512065393404</v>
       </c>
       <c r="BS26" t="n">
         <v>2</v>
@@ -8098,7 +8098,7 @@
         <v>11.1394227563778</v>
       </c>
       <c r="CQ26" t="n">
-        <v>10.2324250145082</v>
+        <v>72.5422806348017</v>
       </c>
     </row>
     <row r="27">
@@ -8238,79 +8238,79 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>31.747769510295</v>
+        <v>31.6998855002589</v>
       </c>
       <c r="AU27" t="n">
         <v>2</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.0000000862725054894749</v>
+        <v>0.0000000863351415139248</v>
       </c>
       <c r="AW27" t="n">
         <v>2</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.00000000272020916917443</v>
+        <v>0.00000000272628664910402</v>
       </c>
       <c r="AY27" t="n">
         <v>2</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.00000000153032737484542</v>
+        <v>0.0000000015355056221306</v>
       </c>
       <c r="BA27" t="n">
         <v>2</v>
       </c>
       <c r="BB27" t="n">
-        <v>0.000000000021201515692361</v>
+        <v>0.0000000000212625791425863</v>
       </c>
       <c r="BC27" t="n">
         <v>2</v>
       </c>
       <c r="BD27" t="n">
-        <v>50.719222259711</v>
+        <v>50.8105966036826</v>
       </c>
       <c r="BE27" t="n">
         <v>2</v>
       </c>
       <c r="BF27" t="n">
-        <v>0.0000000025723676573736</v>
+        <v>0.00000000168757073539817</v>
       </c>
       <c r="BG27" t="n">
         <v>2</v>
       </c>
       <c r="BH27" t="n">
-        <v>31.2577397047563</v>
+        <v>28.4539302194596</v>
       </c>
       <c r="BI27" t="n">
         <v>2</v>
       </c>
       <c r="BJ27" t="n">
-        <v>0.000000136297420136194</v>
+        <v>0.0000000750039234075199</v>
       </c>
       <c r="BK27" t="n">
         <v>2</v>
       </c>
       <c r="BL27" t="n">
-        <v>0.00000000430435129546893</v>
+        <v>0.00000000263431285404852</v>
       </c>
       <c r="BM27" t="n">
         <v>2</v>
       </c>
       <c r="BN27" t="n">
-        <v>0.0000000025723676573736</v>
+        <v>0.00000000168757073539817</v>
       </c>
       <c r="BO27" t="n">
         <v>2</v>
       </c>
       <c r="BP27" t="n">
-        <v>0.000000000036936270181803</v>
+        <v>0.000000000022918341352102</v>
       </c>
       <c r="BQ27" t="n">
         <v>2</v>
       </c>
       <c r="BR27" t="n">
-        <v>54.266614313875</v>
+        <v>50.7483684462434</v>
       </c>
       <c r="BS27" t="n">
         <v>2</v>
@@ -8385,7 +8385,7 @@
         <v>10.5479338634595</v>
       </c>
       <c r="CQ27" t="n">
-        <v>9.95810292943892</v>
+        <v>72.4622733727182</v>
       </c>
     </row>
     <row r="28">
@@ -8525,79 +8525,79 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>31.7445320111993</v>
+        <v>31.6962722789904</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.0000000863428892454773</v>
+        <v>0.0000000864047759840461</v>
       </c>
       <c r="AW28" t="n">
         <v>2</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.00000000272269317595097</v>
+        <v>0.0000000027287856606127</v>
       </c>
       <c r="AY28" t="n">
         <v>2</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.00000000153171489041237</v>
+        <v>0.00000000153692926738149</v>
       </c>
       <c r="BA28" t="n">
         <v>2</v>
       </c>
       <c r="BB28" t="n">
-        <v>0.0000000000212205610116351</v>
+        <v>0.0000000000212814109728295</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
       </c>
       <c r="BD28" t="n">
-        <v>50.7192001085485</v>
+        <v>50.8106326498722</v>
       </c>
       <c r="BE28" t="n">
         <v>2</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.00000000257700590819287</v>
+        <v>0.00000000168805842705502</v>
       </c>
       <c r="BG28" t="n">
         <v>2</v>
       </c>
       <c r="BH28" t="n">
-        <v>31.2710632468138</v>
+        <v>28.4541386623178</v>
       </c>
       <c r="BI28" t="n">
         <v>2</v>
       </c>
       <c r="BJ28" t="n">
-        <v>0.000000136619686382845</v>
+        <v>0.0000000750369924506465</v>
       </c>
       <c r="BK28" t="n">
         <v>2</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.00000000431336601129908</v>
+        <v>0.0000000026354473430724</v>
       </c>
       <c r="BM28" t="n">
         <v>2</v>
       </c>
       <c r="BN28" t="n">
-        <v>0.00000000257700590819287</v>
+        <v>0.00000000168805842705502</v>
       </c>
       <c r="BO28" t="n">
         <v>2</v>
       </c>
       <c r="BP28" t="n">
-        <v>0.0000000000370063335775277</v>
+        <v>0.0000000000229242571833172</v>
       </c>
       <c r="BQ28" t="n">
         <v>2</v>
       </c>
       <c r="BR28" t="n">
-        <v>54.2803236655065</v>
+        <v>50.7448208298862</v>
       </c>
       <c r="BS28" t="n">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>9.81492479026901</v>
       </c>
       <c r="CQ28" t="n">
-        <v>9.62175530252857</v>
+        <v>72.4087563609481</v>
       </c>
     </row>
     <row r="29">
@@ -8812,79 +8812,79 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>31.7412945121036</v>
+        <v>31.6926590577219</v>
       </c>
       <c r="AU29" t="n">
         <v>2</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.0000000864132730014797</v>
+        <v>0.0000000864744104541673</v>
       </c>
       <c r="AW29" t="n">
         <v>2</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.00000000272517718272751</v>
+        <v>0.00000000273128467212139</v>
       </c>
       <c r="AY29" t="n">
         <v>2</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0.00000000153310240597932</v>
+        <v>0.00000000153835291263237</v>
       </c>
       <c r="BA29" t="n">
         <v>2</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.0000000000212396063309091</v>
+        <v>0.0000000000213002428030726</v>
       </c>
       <c r="BC29" t="n">
         <v>2</v>
       </c>
       <c r="BD29" t="n">
-        <v>50.719177957386</v>
+        <v>50.8106686960617</v>
       </c>
       <c r="BE29" t="n">
         <v>2</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.00000000258164415901214</v>
+        <v>0.00000000168854611871187</v>
       </c>
       <c r="BG29" t="n">
         <v>2</v>
       </c>
       <c r="BH29" t="n">
-        <v>31.2843867888712</v>
+        <v>28.454347105176</v>
       </c>
       <c r="BI29" t="n">
         <v>2</v>
       </c>
       <c r="BJ29" t="n">
-        <v>0.000000136941952629496</v>
+        <v>0.000000075070061493773</v>
       </c>
       <c r="BK29" t="n">
         <v>2</v>
       </c>
       <c r="BL29" t="n">
-        <v>0.00000000432238072712923</v>
+        <v>0.00000000263658183209627</v>
       </c>
       <c r="BM29" t="n">
         <v>2</v>
       </c>
       <c r="BN29" t="n">
-        <v>0.00000000258164415901214</v>
+        <v>0.00000000168854611871187</v>
       </c>
       <c r="BO29" t="n">
         <v>2</v>
       </c>
       <c r="BP29" t="n">
-        <v>0.0000000000370763969732524</v>
+        <v>0.0000000000229301730145323</v>
       </c>
       <c r="BQ29" t="n">
         <v>2</v>
       </c>
       <c r="BR29" t="n">
-        <v>54.2940330171381</v>
+        <v>50.7412732135291</v>
       </c>
       <c r="BS29" t="n">
         <v>2</v>
@@ -8959,7 +8959,7 @@
         <v>9.07127137029533</v>
       </c>
       <c r="CQ29" t="n">
-        <v>9.27541644369289</v>
+        <v>72.2774168726459</v>
       </c>
     </row>
     <row r="30">
@@ -9099,79 +9099,79 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>31.7380570130181</v>
+        <v>31.6890458364649</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.0000000864836567572584</v>
+        <v>0.0000000865440449240672</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.00000000272766118949615</v>
+        <v>0.00000000273378368362213</v>
       </c>
       <c r="AY30" t="n">
         <v>2</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0.00000000153448992154186</v>
+        <v>0.00000000153977655787873</v>
       </c>
       <c r="BA30" t="n">
         <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.0000000000212586516501227</v>
+        <v>0.0000000000213190746332559</v>
       </c>
       <c r="BC30" t="n">
         <v>2</v>
       </c>
       <c r="BD30" t="n">
-        <v>50.7191558062235</v>
+        <v>50.8107047422512</v>
       </c>
       <c r="BE30" t="n">
         <v>2</v>
       </c>
       <c r="BF30" t="n">
-        <v>0.00000000258628240981666</v>
+        <v>0.00000000168903381036717</v>
       </c>
       <c r="BG30" t="n">
         <v>2</v>
       </c>
       <c r="BH30" t="n">
-        <v>31.2977103308863</v>
+        <v>28.4545555480336</v>
       </c>
       <c r="BI30" t="n">
         <v>2</v>
       </c>
       <c r="BJ30" t="n">
-        <v>0.000000137264218875122</v>
+        <v>0.0000000751031305367944</v>
       </c>
       <c r="BK30" t="n">
         <v>2</v>
       </c>
       <c r="BL30" t="n">
-        <v>0.00000000433139544293073</v>
+        <v>0.00000000263771632111654</v>
       </c>
       <c r="BM30" t="n">
         <v>2</v>
       </c>
       <c r="BN30" t="n">
-        <v>0.00000000258628240981666</v>
+        <v>0.00000000168903381036717</v>
       </c>
       <c r="BO30" t="n">
         <v>2</v>
       </c>
       <c r="BP30" t="n">
-        <v>0.0000000000371464603687544</v>
+        <v>0.0000000000229360888457287</v>
       </c>
       <c r="BQ30" t="n">
         <v>2</v>
       </c>
       <c r="BR30" t="n">
-        <v>54.3077423687261</v>
+        <v>50.7377255971833</v>
       </c>
       <c r="BS30" t="n">
         <v>2</v>
@@ -9246,7 +9246,7 @@
         <v>16.9579766344841</v>
       </c>
       <c r="CQ30" t="n">
-        <v>8.94256612320966</v>
+        <v>72.2493665011198</v>
       </c>
     </row>
     <row r="31">
@@ -9386,79 +9386,79 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>31.7354670137313</v>
+        <v>31.6861552594386</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.000000086539963762284</v>
+        <v>0.0000000865997525003855</v>
       </c>
       <c r="AW31" t="n">
         <v>2</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.00000000272964839492527</v>
+        <v>0.00000000273578289283703</v>
       </c>
       <c r="AY31" t="n">
         <v>2</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0.00000000153559993399983</v>
+        <v>0.00000000154091547408396</v>
       </c>
       <c r="BA31" t="n">
         <v>2</v>
       </c>
       <c r="BB31" t="n">
-        <v>0.0000000000212738879056024</v>
+        <v>0.0000000000213341400975103</v>
       </c>
       <c r="BC31" t="n">
         <v>2</v>
       </c>
       <c r="BD31" t="n">
-        <v>50.7191380852934</v>
+        <v>50.810733579203</v>
       </c>
       <c r="BE31" t="n">
         <v>2</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.00000000258999301048682</v>
+        <v>0.0000000016894239636942</v>
       </c>
       <c r="BG31" t="n">
         <v>2</v>
       </c>
       <c r="BH31" t="n">
-        <v>31.3083691645746</v>
+        <v>28.4547223023208</v>
       </c>
       <c r="BI31" t="n">
         <v>2</v>
       </c>
       <c r="BJ31" t="n">
-        <v>0.000000137522031873467</v>
+        <v>0.0000000751295857714007</v>
       </c>
       <c r="BK31" t="n">
         <v>2</v>
       </c>
       <c r="BL31" t="n">
-        <v>0.0000000043386072156235</v>
+        <v>0.00000000263862391233925</v>
       </c>
       <c r="BM31" t="n">
         <v>2</v>
       </c>
       <c r="BN31" t="n">
-        <v>0.00000000258999301048682</v>
+        <v>0.0000000016894239636942</v>
       </c>
       <c r="BO31" t="n">
         <v>2</v>
       </c>
       <c r="BP31" t="n">
-        <v>0.0000000000372025110855569</v>
+        <v>0.0000000000229408215107196</v>
       </c>
       <c r="BQ31" t="n">
         <v>2</v>
       </c>
       <c r="BR31" t="n">
-        <v>54.318709850075</v>
+        <v>50.7348875040863</v>
       </c>
       <c r="BS31" t="n">
         <v>2</v>
@@ -9533,7 +9533,7 @@
         <v>35.4443429623047</v>
       </c>
       <c r="CQ31" t="n">
-        <v>8.6703074733632</v>
+        <v>72.1785842278074</v>
       </c>
     </row>
     <row r="32">
@@ -9673,79 +9673,79 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>31.7322295146355</v>
+        <v>31.6825420381701</v>
       </c>
       <c r="AU32" t="n">
         <v>2</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.0000000866103475182865</v>
+        <v>0.0000000866693869705067</v>
       </c>
       <c r="AW32" t="n">
         <v>2</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.00000000273213240170181</v>
+        <v>0.00000000273828190434571</v>
       </c>
       <c r="AY32" t="n">
         <v>2</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.00000000153698744956678</v>
+        <v>0.00000000154233911933484</v>
       </c>
       <c r="BA32" t="n">
         <v>2</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.0000000000212929332248765</v>
+        <v>0.0000000000213529719277535</v>
       </c>
       <c r="BC32" t="n">
         <v>2</v>
       </c>
       <c r="BD32" t="n">
-        <v>50.7191159341309</v>
+        <v>50.8107696253925</v>
       </c>
       <c r="BE32" t="n">
         <v>2</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.00000000259463126130609</v>
+        <v>0.00000000168991165535105</v>
       </c>
       <c r="BG32" t="n">
         <v>2</v>
       </c>
       <c r="BH32" t="n">
-        <v>31.321692706632</v>
+        <v>28.454930745179</v>
       </c>
       <c r="BI32" t="n">
         <v>2</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0.000000137844298120118</v>
+        <v>0.0000000751626548145272</v>
       </c>
       <c r="BK32" t="n">
         <v>2</v>
       </c>
       <c r="BL32" t="n">
-        <v>0.00000000434762193145365</v>
+        <v>0.00000000263975840136312</v>
       </c>
       <c r="BM32" t="n">
         <v>2</v>
       </c>
       <c r="BN32" t="n">
-        <v>0.00000000259463126130609</v>
+        <v>0.00000000168991165535105</v>
       </c>
       <c r="BO32" t="n">
         <v>2</v>
       </c>
       <c r="BP32" t="n">
-        <v>0.0000000000372725744812816</v>
+        <v>0.0000000000229467373419347</v>
       </c>
       <c r="BQ32" t="n">
         <v>2</v>
       </c>
       <c r="BR32" t="n">
-        <v>54.3324192017066</v>
+        <v>50.7313398877292</v>
       </c>
       <c r="BS32" t="n">
         <v>2</v>
@@ -9820,7 +9820,7 @@
         <v>35.5450089210832</v>
       </c>
       <c r="CQ32" t="n">
-        <v>8.32986852726186</v>
+        <v>72.0866699010571</v>
       </c>
     </row>
     <row r="33">
@@ -9960,79 +9960,79 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>31.7289920155398</v>
+        <v>31.6789288169016</v>
       </c>
       <c r="AU33" t="n">
         <v>2</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.0000000866807312742889</v>
+        <v>0.0000000867390214406279</v>
       </c>
       <c r="AW33" t="n">
         <v>2</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.00000000273461640847835</v>
+        <v>0.0000000027407809158544</v>
       </c>
       <c r="AY33" t="n">
         <v>2</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.00000000153837496513373</v>
+        <v>0.00000000154376276458573</v>
       </c>
       <c r="BA33" t="n">
         <v>2</v>
       </c>
       <c r="BB33" t="n">
-        <v>0.0000000000213119785441505</v>
+        <v>0.0000000000213718037579967</v>
       </c>
       <c r="BC33" t="n">
         <v>2</v>
       </c>
       <c r="BD33" t="n">
-        <v>50.7190937829684</v>
+        <v>50.8108056715821</v>
       </c>
       <c r="BE33" t="n">
         <v>2</v>
       </c>
       <c r="BF33" t="n">
-        <v>0.00000000259926951212536</v>
+        <v>0.0000000016903993470079</v>
       </c>
       <c r="BG33" t="n">
         <v>2</v>
       </c>
       <c r="BH33" t="n">
-        <v>31.3350162486894</v>
+        <v>28.4551391880372</v>
       </c>
       <c r="BI33" t="n">
         <v>2</v>
       </c>
       <c r="BJ33" t="n">
-        <v>0.000000138166564366769</v>
+        <v>0.0000000751957238576538</v>
       </c>
       <c r="BK33" t="n">
         <v>2</v>
       </c>
       <c r="BL33" t="n">
-        <v>0.0000000043566366472838</v>
+        <v>0.00000000264089289038699</v>
       </c>
       <c r="BM33" t="n">
         <v>2</v>
       </c>
       <c r="BN33" t="n">
-        <v>0.00000000259926951212536</v>
+        <v>0.0000000016903993470079</v>
       </c>
       <c r="BO33" t="n">
         <v>2</v>
       </c>
       <c r="BP33" t="n">
-        <v>0.0000000000373426378770064</v>
+        <v>0.0000000000229526531731499</v>
       </c>
       <c r="BQ33" t="n">
         <v>2</v>
       </c>
       <c r="BR33" t="n">
-        <v>54.3461285533381</v>
+        <v>50.727792271372</v>
       </c>
       <c r="BS33" t="n">
         <v>2</v>
@@ -10107,7 +10107,7 @@
         <v>49.7843793785495</v>
       </c>
       <c r="CQ33" t="n">
-        <v>7.98154333000605</v>
+        <v>71.9205947067789</v>
       </c>
     </row>
     <row r="34">
@@ -10247,79 +10247,79 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>31.7257545164544</v>
+        <v>31.6753155956446</v>
       </c>
       <c r="AU34" t="n">
         <v>2</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.0000000867511150300675</v>
+        <v>0.0000000868086559105278</v>
       </c>
       <c r="AW34" t="n">
         <v>2</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.00000000273710041524699</v>
+        <v>0.00000000274327992735514</v>
       </c>
       <c r="AY34" t="n">
         <v>2</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0.00000000153976248069627</v>
+        <v>0.00000000154518640983208</v>
       </c>
       <c r="BA34" t="n">
         <v>2</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.0000000000213310238633641</v>
+        <v>0.00000000002139063558818</v>
       </c>
       <c r="BC34" t="n">
         <v>2</v>
       </c>
       <c r="BD34" t="n">
-        <v>50.719071631806</v>
+        <v>50.8108417177715</v>
       </c>
       <c r="BE34" t="n">
         <v>2</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.00000000260390776292989</v>
+        <v>0.0000000016908870386632</v>
       </c>
       <c r="BG34" t="n">
         <v>2</v>
       </c>
       <c r="BH34" t="n">
-        <v>31.3483397907045</v>
+        <v>28.4553476308948</v>
       </c>
       <c r="BI34" t="n">
         <v>2</v>
       </c>
       <c r="BJ34" t="n">
-        <v>0.000000138488830612395</v>
+        <v>0.0000000752287929006752</v>
       </c>
       <c r="BK34" t="n">
         <v>2</v>
       </c>
       <c r="BL34" t="n">
-        <v>0.0000000043656513630853</v>
+        <v>0.00000000264202737940726</v>
       </c>
       <c r="BM34" t="n">
         <v>2</v>
       </c>
       <c r="BN34" t="n">
-        <v>0.00000000260390776292989</v>
+        <v>0.0000000016908870386632</v>
       </c>
       <c r="BO34" t="n">
         <v>2</v>
       </c>
       <c r="BP34" t="n">
-        <v>0.0000000000374127012725084</v>
+        <v>0.0000000000229585690043462</v>
       </c>
       <c r="BQ34" t="n">
         <v>2</v>
       </c>
       <c r="BR34" t="n">
-        <v>54.3598379049262</v>
+        <v>50.7242446550262</v>
       </c>
       <c r="BS34" t="n">
         <v>2</v>
@@ -10394,7 +10394,7 @@
         <v>58.0450127399309</v>
       </c>
       <c r="CQ34" t="n">
-        <v>7.65264187987305</v>
+        <v>71.9274642423126</v>
       </c>
     </row>
     <row r="35">
@@ -10534,79 +10534,79 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>31.7231645171675</v>
+        <v>31.6724250186184</v>
       </c>
       <c r="AU35" t="n">
         <v>2</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.0000000868074220350932</v>
+        <v>0.0000000868643634868462</v>
       </c>
       <c r="AW35" t="n">
         <v>2</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.00000000273908762067612</v>
+        <v>0.00000000274527913657004</v>
       </c>
       <c r="AY35" t="n">
         <v>2</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.00000000154087249315424</v>
+        <v>0.00000000154632532603732</v>
       </c>
       <c r="BA35" t="n">
         <v>2</v>
       </c>
       <c r="BB35" t="n">
-        <v>0.0000000000213462601188438</v>
+        <v>0.0000000000214057010524344</v>
       </c>
       <c r="BC35" t="n">
         <v>2</v>
       </c>
       <c r="BD35" t="n">
-        <v>50.7190539108759</v>
+        <v>50.8108705547233</v>
       </c>
       <c r="BE35" t="n">
         <v>2</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.00000000260761836360005</v>
+        <v>0.00000000169127719199024</v>
       </c>
       <c r="BG35" t="n">
         <v>2</v>
       </c>
       <c r="BH35" t="n">
-        <v>31.3589986243928</v>
+        <v>28.455514385182</v>
       </c>
       <c r="BI35" t="n">
         <v>2</v>
       </c>
       <c r="BJ35" t="n">
-        <v>0.00000013874664361074</v>
+        <v>0.0000000752552481352815</v>
       </c>
       <c r="BK35" t="n">
         <v>2</v>
       </c>
       <c r="BL35" t="n">
-        <v>0.00000000437286313577807</v>
+        <v>0.00000000264293497062997</v>
       </c>
       <c r="BM35" t="n">
         <v>2</v>
       </c>
       <c r="BN35" t="n">
-        <v>0.00000000260761836360005</v>
+        <v>0.00000000169127719199024</v>
       </c>
       <c r="BO35" t="n">
         <v>2</v>
       </c>
       <c r="BP35" t="n">
-        <v>0.0000000000374687519893109</v>
+        <v>0.0000000000229633016693372</v>
       </c>
       <c r="BQ35" t="n">
         <v>2</v>
       </c>
       <c r="BR35" t="n">
-        <v>54.370805386275</v>
+        <v>50.7214065619292</v>
       </c>
       <c r="BS35" t="n">
         <v>2</v>
@@ -10681,7 +10681,7 @@
         <v>58.094914749622</v>
       </c>
       <c r="CQ35" t="n">
-        <v>7.37694092368728</v>
+        <v>71.8144401547144</v>
       </c>
     </row>
     <row r="36">
@@ -10821,79 +10821,79 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>31.7199270180718</v>
+        <v>31.6688117973499</v>
       </c>
       <c r="AU36" t="n">
         <v>2</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.0000000868778057910956</v>
+        <v>0.0000000869339979569674</v>
       </c>
       <c r="AW36" t="n">
         <v>2</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.00000000274157162745266</v>
+        <v>0.00000000274777814807873</v>
       </c>
       <c r="AY36" t="n">
         <v>2</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.00000000154226000872119</v>
+        <v>0.0000000015477489712882</v>
       </c>
       <c r="BA36" t="n">
         <v>2</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.0000000000213653054381179</v>
+        <v>0.0000000000214245328826776</v>
       </c>
       <c r="BC36" t="n">
         <v>2</v>
       </c>
       <c r="BD36" t="n">
-        <v>50.7190317597134</v>
+        <v>50.8109066009129</v>
       </c>
       <c r="BE36" t="n">
         <v>2</v>
       </c>
       <c r="BF36" t="n">
-        <v>0.00000000261225661441932</v>
+        <v>0.00000000169176488364709</v>
       </c>
       <c r="BG36" t="n">
         <v>2</v>
       </c>
       <c r="BH36" t="n">
-        <v>31.3723221664502</v>
+        <v>28.4557228280402</v>
       </c>
       <c r="BI36" t="n">
         <v>2</v>
       </c>
       <c r="BJ36" t="n">
-        <v>0.000000139068909857391</v>
+        <v>0.000000075288317178408</v>
       </c>
       <c r="BK36" t="n">
         <v>2</v>
       </c>
       <c r="BL36" t="n">
-        <v>0.00000000438187785160823</v>
+        <v>0.00000000264406945965384</v>
       </c>
       <c r="BM36" t="n">
         <v>2</v>
       </c>
       <c r="BN36" t="n">
-        <v>0.00000000261225661441932</v>
+        <v>0.00000000169176488364709</v>
       </c>
       <c r="BO36" t="n">
         <v>2</v>
       </c>
       <c r="BP36" t="n">
-        <v>0.0000000000375388153850356</v>
+        <v>0.0000000000229692175005523</v>
       </c>
       <c r="BQ36" t="n">
         <v>2</v>
       </c>
       <c r="BR36" t="n">
-        <v>54.3845147379066</v>
+        <v>50.7178589455721</v>
       </c>
       <c r="BS36" t="n">
         <v>2</v>
@@ -10968,7 +10968,7 @@
         <v>63.0448037939734</v>
       </c>
       <c r="CQ36" t="n">
-        <v>7.04313146333118</v>
+        <v>71.7760841029189</v>
       </c>
     </row>
     <row r="37">
@@ -11108,79 +11108,79 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>31.7166895189761</v>
+        <v>31.6651985760814</v>
       </c>
       <c r="AU37" t="n">
         <v>2</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.000000086948189547098</v>
+        <v>0.0000000870036324270886</v>
       </c>
       <c r="AW37" t="n">
         <v>2</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.0000000027440556342292</v>
+        <v>0.00000000275027715958741</v>
       </c>
       <c r="AY37" t="n">
         <v>2</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.00000000154364752428814</v>
+        <v>0.00000000154917261653908</v>
       </c>
       <c r="BA37" t="n">
         <v>2</v>
       </c>
       <c r="BB37" t="n">
-        <v>0.000000000021384350757392</v>
+        <v>0.0000000000214433647129208</v>
       </c>
       <c r="BC37" t="n">
         <v>2</v>
       </c>
       <c r="BD37" t="n">
-        <v>50.7190096085508</v>
+        <v>50.8109426471025</v>
       </c>
       <c r="BE37" t="n">
         <v>2</v>
       </c>
       <c r="BF37" t="n">
-        <v>0.00000000261689486523859</v>
+        <v>0.00000000169225257530394</v>
       </c>
       <c r="BG37" t="n">
         <v>2</v>
       </c>
       <c r="BH37" t="n">
-        <v>31.3856457085076</v>
+        <v>28.4559312708984</v>
       </c>
       <c r="BI37" t="n">
         <v>2</v>
       </c>
       <c r="BJ37" t="n">
-        <v>0.000000139391176104041</v>
+        <v>0.0000000753213862215345</v>
       </c>
       <c r="BK37" t="n">
         <v>2</v>
       </c>
       <c r="BL37" t="n">
-        <v>0.00000000439089256743837</v>
+        <v>0.00000000264520394867772</v>
       </c>
       <c r="BM37" t="n">
         <v>2</v>
       </c>
       <c r="BN37" t="n">
-        <v>0.00000000261689486523859</v>
+        <v>0.00000000169225257530394</v>
       </c>
       <c r="BO37" t="n">
         <v>2</v>
       </c>
       <c r="BP37" t="n">
-        <v>0.0000000000376088787807603</v>
+        <v>0.0000000000229751333317674</v>
       </c>
       <c r="BQ37" t="n">
         <v>2</v>
       </c>
       <c r="BR37" t="n">
-        <v>54.3982240895382</v>
+        <v>50.7143113292149</v>
       </c>
       <c r="BS37" t="n">
         <v>2</v>
@@ -11255,7 +11255,7 @@
         <v>63.155214245364</v>
       </c>
       <c r="CQ37" t="n">
-        <v>6.70498272924022</v>
+        <v>71.6929329517067</v>
       </c>
     </row>
     <row r="38">
@@ -11395,79 +11395,79 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>31.7134520198907</v>
+        <v>31.6615853548244</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.0000000870185733028767</v>
+        <v>0.0000000870732668969885</v>
       </c>
       <c r="AW38" t="n">
         <v>2</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.00000000274653964099784</v>
+        <v>0.00000000275277617108816</v>
       </c>
       <c r="AY38" t="n">
         <v>2</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.00000000154503503985068</v>
+        <v>0.00000000155059626178544</v>
       </c>
       <c r="BA38" t="n">
         <v>2</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.0000000000214033960766055</v>
+        <v>0.0000000000214621965431041</v>
       </c>
       <c r="BC38" t="n">
         <v>2</v>
       </c>
       <c r="BD38" t="n">
-        <v>50.7189874573884</v>
+        <v>50.8109786932919</v>
       </c>
       <c r="BE38" t="n">
         <v>2</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.00000000262153311604311</v>
+        <v>0.00000000169274026695924</v>
       </c>
       <c r="BG38" t="n">
         <v>2</v>
       </c>
       <c r="BH38" t="n">
-        <v>31.3989692505227</v>
+        <v>28.456139713756</v>
       </c>
       <c r="BI38" t="n">
         <v>2</v>
       </c>
       <c r="BJ38" t="n">
-        <v>0.000000139713442349668</v>
+        <v>0.0000000753544552645559</v>
       </c>
       <c r="BK38" t="n">
         <v>2</v>
       </c>
       <c r="BL38" t="n">
-        <v>0.00000000439990728323987</v>
+        <v>0.00000000264633843769798</v>
       </c>
       <c r="BM38" t="n">
         <v>2</v>
       </c>
       <c r="BN38" t="n">
-        <v>0.00000000262153311604311</v>
+        <v>0.00000000169274026695924</v>
       </c>
       <c r="BO38" t="n">
         <v>2</v>
       </c>
       <c r="BP38" t="n">
-        <v>0.0000000000376789421762623</v>
+        <v>0.0000000000229810491629638</v>
       </c>
       <c r="BQ38" t="n">
         <v>2</v>
       </c>
       <c r="BR38" t="n">
-        <v>54.4119334411262</v>
+        <v>50.7107637128691</v>
       </c>
       <c r="BS38" t="n">
         <v>2</v>
@@ -11542,7 +11542,7 @@
         <v>65.7336531192632</v>
       </c>
       <c r="CQ38" t="n">
-        <v>6.3574002703104</v>
+        <v>71.5007379604201</v>
       </c>
     </row>
     <row r="39">
@@ -11682,79 +11682,79 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>31.7108620206038</v>
+        <v>31.6586947777981</v>
       </c>
       <c r="AU39" t="n">
         <v>2</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.0000000870748803079024</v>
+        <v>0.0000000871289744733068</v>
       </c>
       <c r="AW39" t="n">
         <v>2</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.00000000274852684642697</v>
+        <v>0.00000000275477538030305</v>
       </c>
       <c r="AY39" t="n">
         <v>2</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.00000000154614505230865</v>
+        <v>0.00000000155173517799067</v>
       </c>
       <c r="BA39" t="n">
         <v>2</v>
       </c>
       <c r="BB39" t="n">
-        <v>0.0000000000214186323320852</v>
+        <v>0.0000000000214772620073585</v>
       </c>
       <c r="BC39" t="n">
         <v>2</v>
       </c>
       <c r="BD39" t="n">
-        <v>50.7189697364583</v>
+        <v>50.8110075302437</v>
       </c>
       <c r="BE39" t="n">
         <v>2</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.00000000262524371671327</v>
+        <v>0.00000000169313042028627</v>
       </c>
       <c r="BG39" t="n">
         <v>2</v>
       </c>
       <c r="BH39" t="n">
-        <v>31.409628084211</v>
+        <v>28.4563064680432</v>
       </c>
       <c r="BI39" t="n">
         <v>2</v>
       </c>
       <c r="BJ39" t="n">
-        <v>0.000000139971255348013</v>
+        <v>0.0000000753809104991623</v>
       </c>
       <c r="BK39" t="n">
         <v>2</v>
       </c>
       <c r="BL39" t="n">
-        <v>0.00000000440711905593264</v>
+        <v>0.00000000264724602892069</v>
       </c>
       <c r="BM39" t="n">
         <v>2</v>
       </c>
       <c r="BN39" t="n">
-        <v>0.00000000262524371671327</v>
+        <v>0.00000000169313042028627</v>
       </c>
       <c r="BO39" t="n">
         <v>2</v>
       </c>
       <c r="BP39" t="n">
-        <v>0.0000000000377349928930648</v>
+        <v>0.0000000000229857818279547</v>
       </c>
       <c r="BQ39" t="n">
         <v>2</v>
       </c>
       <c r="BR39" t="n">
-        <v>54.422900922475</v>
+        <v>50.7079256197721</v>
       </c>
       <c r="BS39" t="n">
         <v>2</v>
@@ -11829,7 +11829,7 @@
         <v>67.2473434673383</v>
       </c>
       <c r="CQ39" t="n">
-        <v>6.08822139581095</v>
+        <v>71.4405511321822</v>
       </c>
     </row>
     <row r="40">
@@ -11969,79 +11969,79 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>31.7076245215081</v>
+        <v>31.6550815565296</v>
       </c>
       <c r="AU40" t="n">
         <v>2</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.0000000871452640639048</v>
+        <v>0.000000087198608943428</v>
       </c>
       <c r="AW40" t="n">
         <v>2</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.0000000027510108532035</v>
+        <v>0.00000000275727439181174</v>
       </c>
       <c r="AY40" t="n">
         <v>2</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.0000000015475325678756</v>
+        <v>0.00000000155315882324156</v>
       </c>
       <c r="BA40" t="n">
         <v>2</v>
       </c>
       <c r="BB40" t="n">
-        <v>0.0000000000214376776513593</v>
+        <v>0.0000000000214960938376016</v>
       </c>
       <c r="BC40" t="n">
         <v>2</v>
       </c>
       <c r="BD40" t="n">
-        <v>50.7189475852958</v>
+        <v>50.8110435764332</v>
       </c>
       <c r="BE40" t="n">
         <v>2</v>
       </c>
       <c r="BF40" t="n">
-        <v>0.00000000262988196753254</v>
+        <v>0.00000000169361811194312</v>
       </c>
       <c r="BG40" t="n">
         <v>2</v>
       </c>
       <c r="BH40" t="n">
-        <v>31.4229516262684</v>
+        <v>28.4565149109014</v>
       </c>
       <c r="BI40" t="n">
         <v>2</v>
       </c>
       <c r="BJ40" t="n">
-        <v>0.000000140293521594663</v>
+        <v>0.0000000754139795422888</v>
       </c>
       <c r="BK40" t="n">
         <v>2</v>
       </c>
       <c r="BL40" t="n">
-        <v>0.00000000441613377176279</v>
+        <v>0.00000000264838051794457</v>
       </c>
       <c r="BM40" t="n">
         <v>2</v>
       </c>
       <c r="BN40" t="n">
-        <v>0.00000000262988196753254</v>
+        <v>0.00000000169361811194312</v>
       </c>
       <c r="BO40" t="n">
         <v>2</v>
       </c>
       <c r="BP40" t="n">
-        <v>0.0000000000378050562887896</v>
+        <v>0.0000000000229916976591699</v>
       </c>
       <c r="BQ40" t="n">
         <v>2</v>
       </c>
       <c r="BR40" t="n">
-        <v>54.4366102741066</v>
+        <v>50.704378003415</v>
       </c>
       <c r="BS40" t="n">
         <v>2</v>
@@ -12116,7 +12116,7 @@
         <v>67.3726256670285</v>
       </c>
       <c r="CQ40" t="n">
-        <v>5.75249556321146</v>
+        <v>71.3724893361014</v>
       </c>
     </row>
     <row r="41">
@@ -12256,79 +12256,79 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>31.7043870224124</v>
+        <v>31.6514683352611</v>
       </c>
       <c r="AU41" t="n">
         <v>2</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.0000000872156478199072</v>
+        <v>0.0000000872682434135493</v>
       </c>
       <c r="AW41" t="n">
         <v>2</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.00000000275349485998004</v>
+        <v>0.00000000275977340332042</v>
       </c>
       <c r="AY41" t="n">
         <v>2</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0.00000000154892008344255</v>
+        <v>0.00000000155458246849244</v>
       </c>
       <c r="BA41" t="n">
         <v>2</v>
       </c>
       <c r="BB41" t="n">
-        <v>0.0000000000214567229706333</v>
+        <v>0.0000000000215149256678448</v>
       </c>
       <c r="BC41" t="n">
         <v>2</v>
       </c>
       <c r="BD41" t="n">
-        <v>50.7189254341333</v>
+        <v>50.8110796226228</v>
       </c>
       <c r="BE41" t="n">
         <v>2</v>
       </c>
       <c r="BF41" t="n">
-        <v>0.00000000263452021835181</v>
+        <v>0.00000000169410580359997</v>
       </c>
       <c r="BG41" t="n">
         <v>2</v>
       </c>
       <c r="BH41" t="n">
-        <v>31.4362751683259</v>
+        <v>28.4567233537597</v>
       </c>
       <c r="BI41" t="n">
         <v>2</v>
       </c>
       <c r="BJ41" t="n">
-        <v>0.000000140615787841314</v>
+        <v>0.0000000754470485854153</v>
       </c>
       <c r="BK41" t="n">
         <v>2</v>
       </c>
       <c r="BL41" t="n">
-        <v>0.00000000442514848759294</v>
+        <v>0.00000000264951500696844</v>
       </c>
       <c r="BM41" t="n">
         <v>2</v>
       </c>
       <c r="BN41" t="n">
-        <v>0.00000000263452021835181</v>
+        <v>0.00000000169410580359997</v>
       </c>
       <c r="BO41" t="n">
         <v>2</v>
       </c>
       <c r="BP41" t="n">
-        <v>0.0000000000378751196845143</v>
+        <v>0.000000000022997613490385</v>
       </c>
       <c r="BQ41" t="n">
         <v>2</v>
       </c>
       <c r="BR41" t="n">
-        <v>54.4503196257382</v>
+        <v>50.7008303870578</v>
       </c>
       <c r="BS41" t="n">
         <v>2</v>
@@ -12403,7 +12403,7 @@
         <v>67.7280491892769</v>
       </c>
       <c r="CQ41" t="n">
-        <v>5.422496778035</v>
+        <v>71.3782133467203</v>
       </c>
     </row>
     <row r="42">
@@ -12543,79 +12543,79 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>31.7011495233269</v>
+        <v>31.6478551140041</v>
       </c>
       <c r="AU42" t="n">
         <v>2</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.0000000872860315756858</v>
+        <v>0.0000000873378778834491</v>
       </c>
       <c r="AW42" t="n">
         <v>2</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.00000000275597886674869</v>
+        <v>0.00000000276227241482117</v>
       </c>
       <c r="AY42" t="n">
         <v>2</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.00000000155030759900509</v>
+        <v>0.0000000015560061137388</v>
       </c>
       <c r="BA42" t="n">
         <v>2</v>
       </c>
       <c r="BB42" t="n">
-        <v>0.0000000000214757682898469</v>
+        <v>0.0000000000215337574980281</v>
       </c>
       <c r="BC42" t="n">
         <v>2</v>
       </c>
       <c r="BD42" t="n">
-        <v>50.7189032829708</v>
+        <v>50.8111156688123</v>
       </c>
       <c r="BE42" t="n">
         <v>2</v>
       </c>
       <c r="BF42" t="n">
-        <v>0.00000000263915846915634</v>
+        <v>0.00000000169459349525528</v>
       </c>
       <c r="BG42" t="n">
         <v>2</v>
       </c>
       <c r="BH42" t="n">
-        <v>31.4495987103409</v>
+        <v>28.4569317966172</v>
       </c>
       <c r="BI42" t="n">
         <v>2</v>
       </c>
       <c r="BJ42" t="n">
-        <v>0.00000014093805408694</v>
+        <v>0.0000000754801176284367</v>
       </c>
       <c r="BK42" t="n">
         <v>2</v>
       </c>
       <c r="BL42" t="n">
-        <v>0.00000000443416320339444</v>
+        <v>0.00000000265064949598871</v>
       </c>
       <c r="BM42" t="n">
         <v>2</v>
       </c>
       <c r="BN42" t="n">
-        <v>0.00000000263915846915634</v>
+        <v>0.00000000169459349525528</v>
       </c>
       <c r="BO42" t="n">
         <v>2</v>
       </c>
       <c r="BP42" t="n">
-        <v>0.0000000000379451830800163</v>
+        <v>0.0000000000230035293215814</v>
       </c>
       <c r="BQ42" t="n">
         <v>2</v>
       </c>
       <c r="BR42" t="n">
-        <v>54.4640289773262</v>
+        <v>50.697282770712</v>
       </c>
       <c r="BS42" t="n">
         <v>2</v>
@@ -12690,7 +12690,7 @@
         <v>67.7425846110931</v>
       </c>
       <c r="CQ42" t="n">
-        <v>5.07833061309617</v>
+        <v>71.1932220911083</v>
       </c>
     </row>
     <row r="43">
@@ -12830,79 +12830,79 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>31.6985595240401</v>
+        <v>31.6449645369778</v>
       </c>
       <c r="AU43" t="n">
         <v>2</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.0000000873423385807115</v>
+        <v>0.0000000873935854597675</v>
       </c>
       <c r="AW43" t="n">
         <v>2</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.00000000275796607217781</v>
+        <v>0.00000000276427162403606</v>
       </c>
       <c r="AY43" t="n">
         <v>2</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0.00000000155141761146306</v>
+        <v>0.00000000155714502994403</v>
       </c>
       <c r="BA43" t="n">
         <v>2</v>
       </c>
       <c r="BB43" t="n">
-        <v>0.0000000000214910045453266</v>
+        <v>0.0000000000215488229622825</v>
       </c>
       <c r="BC43" t="n">
         <v>2</v>
       </c>
       <c r="BD43" t="n">
-        <v>50.7188855620408</v>
+        <v>50.811144505764</v>
       </c>
       <c r="BE43" t="n">
         <v>2</v>
       </c>
       <c r="BF43" t="n">
-        <v>0.0000000026428690698265</v>
+        <v>0.00000000169498364858231</v>
       </c>
       <c r="BG43" t="n">
         <v>2</v>
       </c>
       <c r="BH43" t="n">
-        <v>31.4602575440292</v>
+        <v>28.4570985509044</v>
       </c>
       <c r="BI43" t="n">
         <v>2</v>
       </c>
       <c r="BJ43" t="n">
-        <v>0.000000141195867085286</v>
+        <v>0.0000000755065728630431</v>
       </c>
       <c r="BK43" t="n">
         <v>2</v>
       </c>
       <c r="BL43" t="n">
-        <v>0.00000000444137497608721</v>
+        <v>0.00000000265155708721141</v>
       </c>
       <c r="BM43" t="n">
         <v>2</v>
       </c>
       <c r="BN43" t="n">
-        <v>0.0000000026428690698265</v>
+        <v>0.00000000169498364858231</v>
       </c>
       <c r="BO43" t="n">
         <v>2</v>
       </c>
       <c r="BP43" t="n">
-        <v>0.0000000000380012337968188</v>
+        <v>0.0000000000230082619865723</v>
       </c>
       <c r="BQ43" t="n">
         <v>2</v>
       </c>
       <c r="BR43" t="n">
-        <v>54.474996458675</v>
+        <v>50.694444677615</v>
       </c>
       <c r="BS43" t="n">
         <v>2</v>
@@ -12977,7 +12977,7 @@
         <v>68.7548749691063</v>
       </c>
       <c r="CQ43" t="n">
-        <v>4.80777805348535</v>
+        <v>71.1030894579908</v>
       </c>
     </row>
     <row r="44">
@@ -13117,79 +13117,79 @@
         <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>31.6953220249443</v>
+        <v>31.6413513157093</v>
       </c>
       <c r="AU44" t="n">
         <v>2</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.0000000874127223367139</v>
+        <v>0.0000000874632199298887</v>
       </c>
       <c r="AW44" t="n">
         <v>2</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.00000000276045007895435</v>
+        <v>0.00000000276677063554475</v>
       </c>
       <c r="AY44" t="n">
         <v>2</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0.00000000155280512703001</v>
+        <v>0.00000000155856867519491</v>
       </c>
       <c r="BA44" t="n">
         <v>2</v>
       </c>
       <c r="BB44" t="n">
-        <v>0.0000000000215100498646007</v>
+        <v>0.0000000000215676547925257</v>
       </c>
       <c r="BC44" t="n">
         <v>2</v>
       </c>
       <c r="BD44" t="n">
-        <v>50.7188634108782</v>
+        <v>50.8111805519536</v>
       </c>
       <c r="BE44" t="n">
         <v>2</v>
       </c>
       <c r="BF44" t="n">
-        <v>0.00000000264750732064577</v>
+        <v>0.00000000169547134023916</v>
       </c>
       <c r="BG44" t="n">
         <v>2</v>
       </c>
       <c r="BH44" t="n">
-        <v>31.4735810860867</v>
+        <v>28.4573069937627</v>
       </c>
       <c r="BI44" t="n">
         <v>2</v>
       </c>
       <c r="BJ44" t="n">
-        <v>0.000000141518133331936</v>
+        <v>0.0000000755396419061696</v>
       </c>
       <c r="BK44" t="n">
         <v>2</v>
       </c>
       <c r="BL44" t="n">
-        <v>0.00000000445038969191736</v>
+        <v>0.00000000265269157623529</v>
       </c>
       <c r="BM44" t="n">
         <v>2</v>
       </c>
       <c r="BN44" t="n">
-        <v>0.00000000264750732064577</v>
+        <v>0.00000000169547134023916</v>
       </c>
       <c r="BO44" t="n">
         <v>2</v>
       </c>
       <c r="BP44" t="n">
-        <v>0.0000000000380712971925435</v>
+        <v>0.0000000000230141778177874</v>
       </c>
       <c r="BQ44" t="n">
         <v>2</v>
       </c>
       <c r="BR44" t="n">
-        <v>54.4887058103066</v>
+        <v>50.6908970612579</v>
       </c>
       <c r="BS44" t="n">
         <v>2</v>
@@ -13264,7 +13264,7 @@
         <v>70.0894746333047</v>
       </c>
       <c r="CQ44" t="n">
-        <v>4.47441506193299</v>
+        <v>71.059451645268</v>
       </c>
     </row>
     <row r="45">
@@ -13404,79 +13404,79 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>31.6920845258589</v>
+        <v>31.6377380944523</v>
       </c>
       <c r="AU45" t="n">
         <v>2</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.0000000874831060924926</v>
+        <v>0.0000000875328543997885</v>
       </c>
       <c r="AW45" t="n">
         <v>2</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.00000000276293408572299</v>
+        <v>0.00000000276926964704549</v>
       </c>
       <c r="AY45" t="n">
         <v>2</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0.00000000155419264259255</v>
+        <v>0.00000000155999232044127</v>
       </c>
       <c r="BA45" t="n">
         <v>2</v>
       </c>
       <c r="BB45" t="n">
-        <v>0.0000000000215290951838142</v>
+        <v>0.000000000021586486622709</v>
       </c>
       <c r="BC45" t="n">
         <v>2</v>
       </c>
       <c r="BD45" t="n">
-        <v>50.7188412597158</v>
+        <v>50.811216598143</v>
       </c>
       <c r="BE45" t="n">
         <v>2</v>
       </c>
       <c r="BF45" t="n">
-        <v>0.00000000265214557145029</v>
+        <v>0.00000000169595903189446</v>
       </c>
       <c r="BG45" t="n">
         <v>2</v>
       </c>
       <c r="BH45" t="n">
-        <v>31.4869046281017</v>
+        <v>28.4575154366202</v>
       </c>
       <c r="BI45" t="n">
         <v>2</v>
       </c>
       <c r="BJ45" t="n">
-        <v>0.000000141840399577563</v>
+        <v>0.000000075572710949191</v>
       </c>
       <c r="BK45" t="n">
         <v>2</v>
       </c>
       <c r="BL45" t="n">
-        <v>0.00000000445940440771886</v>
+        <v>0.00000000265382606525556</v>
       </c>
       <c r="BM45" t="n">
         <v>2</v>
       </c>
       <c r="BN45" t="n">
-        <v>0.00000000265214557145029</v>
+        <v>0.00000000169595903189446</v>
       </c>
       <c r="BO45" t="n">
         <v>2</v>
       </c>
       <c r="BP45" t="n">
-        <v>0.0000000000381413605880455</v>
+        <v>0.0000000000230200936489838</v>
       </c>
       <c r="BQ45" t="n">
         <v>2</v>
       </c>
       <c r="BR45" t="n">
-        <v>54.5024151618946</v>
+        <v>50.687349444912</v>
       </c>
       <c r="BS45" t="n">
         <v>2</v>
@@ -13551,7 +13551,7 @@
         <v>70.2131251000137</v>
       </c>
       <c r="CQ45" t="n">
-        <v>4.13934156367862</v>
+        <v>70.9883319210768</v>
       </c>
     </row>
     <row r="46">
@@ -13691,79 +13691,79 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>31.6894945265721</v>
+        <v>31.634847517426</v>
       </c>
       <c r="AU46" t="n">
         <v>2</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.0000000875394130975183</v>
+        <v>0.0000000875885619761069</v>
       </c>
       <c r="AW46" t="n">
         <v>2</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.00000000276492129115212</v>
+        <v>0.00000000277126885626039</v>
       </c>
       <c r="AY46" t="n">
         <v>2</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0.00000000155530265505052</v>
+        <v>0.0000000015611312366465</v>
       </c>
       <c r="BA46" t="n">
         <v>2</v>
       </c>
       <c r="BB46" t="n">
-        <v>0.000000000021544331439294</v>
+        <v>0.0000000000216015520869634</v>
       </c>
       <c r="BC46" t="n">
         <v>2</v>
       </c>
       <c r="BD46" t="n">
-        <v>50.7188235387857</v>
+        <v>50.8112454350948</v>
       </c>
       <c r="BE46" t="n">
         <v>2</v>
       </c>
       <c r="BF46" t="n">
-        <v>0.00000000265585617212045</v>
+        <v>0.00000000169634918522149</v>
       </c>
       <c r="BG46" t="n">
         <v>2</v>
       </c>
       <c r="BH46" t="n">
-        <v>31.49756346179</v>
+        <v>28.4576821909074</v>
       </c>
       <c r="BI46" t="n">
         <v>2</v>
       </c>
       <c r="BJ46" t="n">
-        <v>0.000000142098212575908</v>
+        <v>0.0000000755991661837973</v>
       </c>
       <c r="BK46" t="n">
         <v>2</v>
       </c>
       <c r="BL46" t="n">
-        <v>0.00000000446661618041163</v>
+        <v>0.00000000265473365647826</v>
       </c>
       <c r="BM46" t="n">
         <v>2</v>
       </c>
       <c r="BN46" t="n">
-        <v>0.00000000265585617212045</v>
+        <v>0.00000000169634918522149</v>
       </c>
       <c r="BO46" t="n">
         <v>2</v>
       </c>
       <c r="BP46" t="n">
-        <v>0.000000000038197411304848</v>
+        <v>0.0000000000230248263139747</v>
       </c>
       <c r="BQ46" t="n">
         <v>2</v>
       </c>
       <c r="BR46" t="n">
-        <v>54.5133826432435</v>
+        <v>50.684511351815</v>
       </c>
       <c r="BS46" t="n">
         <v>2</v>
@@ -13838,7 +13838,7 @@
         <v>70.7146873699683</v>
       </c>
       <c r="CQ46" t="n">
-        <v>3.87281295289621</v>
+        <v>70.9575314684707</v>
       </c>
     </row>
     <row r="47">
@@ -13978,79 +13978,79 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>31.6862570274763</v>
+        <v>31.6312342961576</v>
       </c>
       <c r="AU47" t="n">
         <v>2</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.0000000876097968535207</v>
+        <v>0.0000000876581964462281</v>
       </c>
       <c r="AW47" t="n">
         <v>2</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.00000000276740529792866</v>
+        <v>0.00000000277376786776907</v>
       </c>
       <c r="AY47" t="n">
         <v>2</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.00000000155669017061747</v>
+        <v>0.00000000156255488189739</v>
       </c>
       <c r="BA47" t="n">
         <v>2</v>
       </c>
       <c r="BB47" t="n">
-        <v>0.000000000021563376758568</v>
+        <v>0.0000000000216203839172066</v>
       </c>
       <c r="BC47" t="n">
         <v>2</v>
       </c>
       <c r="BD47" t="n">
-        <v>50.7188013876232</v>
+        <v>50.8112814812844</v>
       </c>
       <c r="BE47" t="n">
         <v>2</v>
       </c>
       <c r="BF47" t="n">
-        <v>0.00000000266049442293972</v>
+        <v>0.00000000169683687687834</v>
       </c>
       <c r="BG47" t="n">
         <v>2</v>
       </c>
       <c r="BH47" t="n">
-        <v>31.5108870038475</v>
+        <v>28.4578906337657</v>
       </c>
       <c r="BI47" t="n">
         <v>2</v>
       </c>
       <c r="BJ47" t="n">
-        <v>0.000000142420478822558</v>
+        <v>0.0000000756322352269238</v>
       </c>
       <c r="BK47" t="n">
         <v>2</v>
       </c>
       <c r="BL47" t="n">
-        <v>0.00000000447563089624178</v>
+        <v>0.00000000265586814550214</v>
       </c>
       <c r="BM47" t="n">
         <v>2</v>
       </c>
       <c r="BN47" t="n">
-        <v>0.00000000266049442293972</v>
+        <v>0.00000000169683687687834</v>
       </c>
       <c r="BO47" t="n">
         <v>2</v>
       </c>
       <c r="BP47" t="n">
-        <v>0.0000000000382674747005727</v>
+        <v>0.0000000000230307421451899</v>
       </c>
       <c r="BQ47" t="n">
         <v>2</v>
       </c>
       <c r="BR47" t="n">
-        <v>54.5270919948751</v>
+        <v>50.6809637354579</v>
       </c>
       <c r="BS47" t="n">
         <v>2</v>
@@ -14125,7 +14125,7 @@
         <v>70.8102304026288</v>
       </c>
       <c r="CQ47" t="n">
-        <v>3.53645750882102</v>
+        <v>70.857873299691</v>
       </c>
     </row>
     <row r="48">
@@ -14265,79 +14265,79 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>31.6830195283806</v>
+        <v>31.6276210748891</v>
       </c>
       <c r="AU48" t="n">
         <v>2</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.0000000876801806095231</v>
+        <v>0.0000000877278309163493</v>
       </c>
       <c r="AW48" t="n">
         <v>2</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.0000000027698893047052</v>
+        <v>0.00000000277626687927776</v>
       </c>
       <c r="AY48" t="n">
         <v>2</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.00000000155807768618442</v>
+        <v>0.00000000156397852714827</v>
       </c>
       <c r="BA48" t="n">
         <v>2</v>
       </c>
       <c r="BB48" t="n">
-        <v>0.0000000000215824220778421</v>
+        <v>0.0000000000216392157474498</v>
       </c>
       <c r="BC48" t="n">
         <v>2</v>
       </c>
       <c r="BD48" t="n">
-        <v>50.7187792364607</v>
+        <v>50.8113175274739</v>
       </c>
       <c r="BE48" t="n">
         <v>2</v>
       </c>
       <c r="BF48" t="n">
-        <v>0.00000000266513267375899</v>
+        <v>0.00000000169732456853519</v>
       </c>
       <c r="BG48" t="n">
         <v>2</v>
       </c>
       <c r="BH48" t="n">
-        <v>31.5242105459049</v>
+        <v>28.4580990766239</v>
       </c>
       <c r="BI48" t="n">
         <v>2</v>
       </c>
       <c r="BJ48" t="n">
-        <v>0.000000142742745069209</v>
+        <v>0.0000000756653042700504</v>
       </c>
       <c r="BK48" t="n">
         <v>2</v>
       </c>
       <c r="BL48" t="n">
-        <v>0.00000000448464561207193</v>
+        <v>0.00000000265700263452601</v>
       </c>
       <c r="BM48" t="n">
         <v>2</v>
       </c>
       <c r="BN48" t="n">
-        <v>0.00000000266513267375899</v>
+        <v>0.00000000169732456853519</v>
       </c>
       <c r="BO48" t="n">
         <v>2</v>
       </c>
       <c r="BP48" t="n">
-        <v>0.0000000000383375380962975</v>
+        <v>0.000000000023036657976405</v>
       </c>
       <c r="BQ48" t="n">
         <v>2</v>
       </c>
       <c r="BR48" t="n">
-        <v>54.5408013465066</v>
+        <v>50.6774161191008</v>
       </c>
       <c r="BS48" t="n">
         <v>2</v>
@@ -14412,7 +14412,7 @@
         <v>71.1799264493622</v>
       </c>
       <c r="CQ48" t="n">
-        <v>3.19795852432813</v>
+        <v>70.7017016505093</v>
       </c>
     </row>
     <row r="49">
@@ -14552,79 +14552,79 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>31.6797820292952</v>
+        <v>31.6240078536321</v>
       </c>
       <c r="AU49" t="n">
         <v>2</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.0000000877505643653017</v>
+        <v>0.0000000877974653862492</v>
       </c>
       <c r="AW49" t="n">
         <v>2</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.00000000277237331147384</v>
+        <v>0.0000000027787658907785</v>
       </c>
       <c r="AY49" t="n">
         <v>2</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.00000000155946520174696</v>
+        <v>0.00000000156540217239463</v>
       </c>
       <c r="BA49" t="n">
         <v>2</v>
       </c>
       <c r="BB49" t="n">
-        <v>0.0000000000216014673970556</v>
+        <v>0.0000000000216580475776331</v>
       </c>
       <c r="BC49" t="n">
         <v>2</v>
       </c>
       <c r="BD49" t="n">
-        <v>50.7187570852982</v>
+        <v>50.8113535736634</v>
       </c>
       <c r="BE49" t="n">
         <v>2</v>
       </c>
       <c r="BF49" t="n">
-        <v>0.00000000266977092456351</v>
+        <v>0.0000000016978122601905</v>
       </c>
       <c r="BG49" t="n">
         <v>2</v>
       </c>
       <c r="BH49" t="n">
-        <v>31.53753408792</v>
+        <v>28.4583075194814</v>
       </c>
       <c r="BI49" t="n">
         <v>2</v>
       </c>
       <c r="BJ49" t="n">
-        <v>0.000000143065011314835</v>
+        <v>0.0000000756983733130718</v>
       </c>
       <c r="BK49" t="n">
         <v>2</v>
       </c>
       <c r="BL49" t="n">
-        <v>0.00000000449366032787343</v>
+        <v>0.00000000265813712354628</v>
       </c>
       <c r="BM49" t="n">
         <v>2</v>
       </c>
       <c r="BN49" t="n">
-        <v>0.00000000266977092456351</v>
+        <v>0.0000000016978122601905</v>
       </c>
       <c r="BO49" t="n">
         <v>2</v>
       </c>
       <c r="BP49" t="n">
-        <v>0.0000000000384076014917995</v>
+        <v>0.0000000000230425738076013</v>
       </c>
       <c r="BQ49" t="n">
         <v>2</v>
       </c>
       <c r="BR49" t="n">
-        <v>54.5545106980946</v>
+        <v>50.6738685027549</v>
       </c>
       <c r="BS49" t="n">
         <v>2</v>
@@ -14699,7 +14699,7 @@
         <v>70.8711781098778</v>
       </c>
       <c r="CQ49" t="n">
-        <v>2.85178206828831</v>
+        <v>70.332946329503</v>
       </c>
     </row>
     <row r="50">
@@ -14839,79 +14839,79 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>31.6771920300083</v>
+        <v>31.6211172766058</v>
       </c>
       <c r="AU50" t="n">
         <v>2</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.0000000878068713703274</v>
+        <v>0.0000000878531729625675</v>
       </c>
       <c r="AW50" t="n">
         <v>2</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.00000000277436051690297</v>
+        <v>0.0000000027807650999934</v>
       </c>
       <c r="AY50" t="n">
         <v>2</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.00000000156057521420493</v>
+        <v>0.00000000156654108859986</v>
       </c>
       <c r="BA50" t="n">
         <v>2</v>
       </c>
       <c r="BB50" t="n">
-        <v>0.0000000000216167036525354</v>
+        <v>0.0000000000216731130418875</v>
       </c>
       <c r="BC50" t="n">
         <v>2</v>
       </c>
       <c r="BD50" t="n">
-        <v>50.7187393643681</v>
+        <v>50.8113824106152</v>
       </c>
       <c r="BE50" t="n">
         <v>2</v>
       </c>
       <c r="BF50" t="n">
-        <v>0.00000000267348152523368</v>
+        <v>0.00000000169820241351753</v>
       </c>
       <c r="BG50" t="n">
         <v>2</v>
       </c>
       <c r="BH50" t="n">
-        <v>31.5481929216083</v>
+        <v>28.4584742737687</v>
       </c>
       <c r="BI50" t="n">
         <v>2</v>
       </c>
       <c r="BJ50" t="n">
-        <v>0.00000014332282431318</v>
+        <v>0.0000000757248285476781</v>
       </c>
       <c r="BK50" t="n">
         <v>2</v>
       </c>
       <c r="BL50" t="n">
-        <v>0.0000000045008721005662</v>
+        <v>0.00000000265904471476898</v>
       </c>
       <c r="BM50" t="n">
         <v>2</v>
       </c>
       <c r="BN50" t="n">
-        <v>0.00000000267348152523368</v>
+        <v>0.00000000169820241351753</v>
       </c>
       <c r="BO50" t="n">
         <v>2</v>
       </c>
       <c r="BP50" t="n">
-        <v>0.000000000038463652208602</v>
+        <v>0.0000000000230473064725923</v>
       </c>
       <c r="BQ50" t="n">
         <v>2</v>
       </c>
       <c r="BR50" t="n">
-        <v>54.5654781794435</v>
+        <v>50.671030409658</v>
       </c>
       <c r="BS50" t="n">
         <v>2</v>
@@ -14986,7 +14986,7 @@
         <v>71.1862132591455</v>
       </c>
       <c r="CQ50" t="n">
-        <v>2.59871453839671</v>
+        <v>70.6293020090969</v>
       </c>
     </row>
     <row r="51">
@@ -15126,79 +15126,79 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>31.6739545309126</v>
+        <v>31.6175040553373</v>
       </c>
       <c r="AU51" t="n">
         <v>2</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.0000000878772551263298</v>
+        <v>0.0000000879228074326888</v>
       </c>
       <c r="AW51" t="n">
         <v>2</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.0000000027768445236795</v>
+        <v>0.00000000278326411150208</v>
       </c>
       <c r="AY51" t="n">
         <v>2</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.00000000156196272977188</v>
+        <v>0.00000000156796473385074</v>
       </c>
       <c r="BA51" t="n">
         <v>2</v>
       </c>
       <c r="BB51" t="n">
-        <v>0.0000000000216357489718094</v>
+        <v>0.0000000000216919448721307</v>
       </c>
       <c r="BC51" t="n">
         <v>2</v>
       </c>
       <c r="BD51" t="n">
-        <v>50.7187172132056</v>
+        <v>50.8114184568047</v>
       </c>
       <c r="BE51" t="n">
         <v>2</v>
       </c>
       <c r="BF51" t="n">
-        <v>0.00000000267811977605294</v>
+        <v>0.00000000169869010517438</v>
       </c>
       <c r="BG51" t="n">
         <v>2</v>
       </c>
       <c r="BH51" t="n">
-        <v>31.5615164636657</v>
+        <v>28.4586827166269</v>
       </c>
       <c r="BI51" t="n">
         <v>2</v>
       </c>
       <c r="BJ51" t="n">
-        <v>0.000000143645090559831</v>
+        <v>0.0000000757578975908046</v>
       </c>
       <c r="BK51" t="n">
         <v>2</v>
       </c>
       <c r="BL51" t="n">
-        <v>0.00000000450988681639635</v>
+        <v>0.00000000266017920379286</v>
       </c>
       <c r="BM51" t="n">
         <v>2</v>
       </c>
       <c r="BN51" t="n">
-        <v>0.00000000267811977605294</v>
+        <v>0.00000000169869010517438</v>
       </c>
       <c r="BO51" t="n">
         <v>2</v>
       </c>
       <c r="BP51" t="n">
-        <v>0.0000000000385337156043267</v>
+        <v>0.0000000000230532223038074</v>
       </c>
       <c r="BQ51" t="n">
         <v>2</v>
       </c>
       <c r="BR51" t="n">
-        <v>54.5791875310751</v>
+        <v>50.6674827933008</v>
       </c>
       <c r="BS51" t="n">
         <v>2</v>
@@ -15273,7 +15273,7 @@
         <v>71.0814623299598</v>
       </c>
       <c r="CQ51" t="n">
-        <v>2.2628998068355</v>
+        <v>70.5050272829928</v>
       </c>
     </row>
     <row r="52">
@@ -15413,79 +15413,79 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>31.6707170318169</v>
+        <v>31.6138908340688</v>
       </c>
       <c r="AU52" t="n">
         <v>2</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.0000000879476388823322</v>
+        <v>0.00000008799244190281</v>
       </c>
       <c r="AW52" t="n">
         <v>2</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.00000000277932853045604</v>
+        <v>0.00000000278576312301077</v>
       </c>
       <c r="AY52" t="n">
         <v>2</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0.00000000156335024533883</v>
+        <v>0.00000000156938837910162</v>
       </c>
       <c r="BA52" t="n">
         <v>2</v>
       </c>
       <c r="BB52" t="n">
-        <v>0.0000000000216547942910835</v>
+        <v>0.0000000000217107767023738</v>
       </c>
       <c r="BC52" t="n">
         <v>2</v>
       </c>
       <c r="BD52" t="n">
-        <v>50.7186950620431</v>
+        <v>50.8114545029943</v>
       </c>
       <c r="BE52" t="n">
         <v>2</v>
       </c>
       <c r="BF52" t="n">
-        <v>0.00000000268275802687221</v>
+        <v>0.00000000169917779683123</v>
       </c>
       <c r="BG52" t="n">
         <v>2</v>
       </c>
       <c r="BH52" t="n">
-        <v>31.5748400057231</v>
+        <v>28.4588911594851</v>
       </c>
       <c r="BI52" t="n">
         <v>2</v>
       </c>
       <c r="BJ52" t="n">
-        <v>0.000000143967356806482</v>
+        <v>0.0000000757909666339311</v>
       </c>
       <c r="BK52" t="n">
         <v>2</v>
       </c>
       <c r="BL52" t="n">
-        <v>0.0000000045189015322265</v>
+        <v>0.00000000266131369281673</v>
       </c>
       <c r="BM52" t="n">
         <v>2</v>
       </c>
       <c r="BN52" t="n">
-        <v>0.00000000268275802687221</v>
+        <v>0.00000000169917779683123</v>
       </c>
       <c r="BO52" t="n">
         <v>2</v>
       </c>
       <c r="BP52" t="n">
-        <v>0.0000000000386037790000514</v>
+        <v>0.0000000000230591381350226</v>
       </c>
       <c r="BQ52" t="n">
         <v>2</v>
       </c>
       <c r="BR52" t="n">
-        <v>54.5928968827067</v>
+        <v>50.6639351769437</v>
       </c>
       <c r="BS52" t="n">
         <v>2</v>
@@ -15560,7 +15560,7 @@
         <v>70.9491543207206</v>
       </c>
       <c r="CQ52" t="n">
-        <v>1.92698164641751</v>
+        <v>70.3534705686747</v>
       </c>
     </row>
     <row r="53">
@@ -15700,79 +15700,79 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>31.6674795327315</v>
+        <v>31.6102776128118</v>
       </c>
       <c r="AU53" t="n">
         <v>2</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.0000000880180226381109</v>
+        <v>0.0000000880620763727099</v>
       </c>
       <c r="AW53" t="n">
         <v>2</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.00000000278181253722468</v>
+        <v>0.00000000278826213451151</v>
       </c>
       <c r="AY53" t="n">
         <v>2</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0.00000000156473776090137</v>
+        <v>0.00000000157081202434798</v>
       </c>
       <c r="BA53" t="n">
         <v>2</v>
       </c>
       <c r="BB53" t="n">
-        <v>0.000000000021673839610297</v>
+        <v>0.0000000000217296085325571</v>
       </c>
       <c r="BC53" t="n">
         <v>2</v>
       </c>
       <c r="BD53" t="n">
-        <v>50.7186729108807</v>
+        <v>50.8114905491838</v>
       </c>
       <c r="BE53" t="n">
         <v>2</v>
       </c>
       <c r="BF53" t="n">
-        <v>0.00000000268739627767674</v>
+        <v>0.00000000169966548848653</v>
       </c>
       <c r="BG53" t="n">
         <v>2</v>
       </c>
       <c r="BH53" t="n">
-        <v>31.5881635477382</v>
+        <v>28.4590996023426</v>
       </c>
       <c r="BI53" t="n">
         <v>2</v>
       </c>
       <c r="BJ53" t="n">
-        <v>0.000000144289623052108</v>
+        <v>0.0000000758240356769525</v>
       </c>
       <c r="BK53" t="n">
         <v>2</v>
       </c>
       <c r="BL53" t="n">
-        <v>0.000000004527916248028</v>
+        <v>0.000000002662448181837</v>
       </c>
       <c r="BM53" t="n">
         <v>2</v>
       </c>
       <c r="BN53" t="n">
-        <v>0.00000000268739627767674</v>
+        <v>0.00000000169966548848653</v>
       </c>
       <c r="BO53" t="n">
         <v>2</v>
       </c>
       <c r="BP53" t="n">
-        <v>0.0000000000386738423955534</v>
+        <v>0.0000000000230650539662189</v>
       </c>
       <c r="BQ53" t="n">
         <v>2</v>
       </c>
       <c r="BR53" t="n">
-        <v>54.6066062342947</v>
+        <v>50.6603875605978</v>
       </c>
       <c r="BS53" t="n">
         <v>2</v>
@@ -15847,7 +15847,7 @@
         <v>70.9233485648828</v>
       </c>
       <c r="CQ53" t="n">
-        <v>1.59436052324734</v>
+        <v>70.3075509354092</v>
       </c>
     </row>
     <row r="54">
@@ -15987,79 +15987,79 @@
         <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>31.6648895334446</v>
+        <v>31.6073870357855</v>
       </c>
       <c r="AU54" t="n">
         <v>2</v>
       </c>
       <c r="AV54" t="n">
-        <v>0.0000000880743296431366</v>
+        <v>0.0000000881177839490282</v>
       </c>
       <c r="AW54" t="n">
         <v>2</v>
       </c>
       <c r="AX54" t="n">
-        <v>0.00000000278379974265381</v>
+        <v>0.00000000279026134372641</v>
       </c>
       <c r="AY54" t="n">
         <v>2</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0.00000000156584777335934</v>
+        <v>0.00000000157195094055321</v>
       </c>
       <c r="BA54" t="n">
         <v>2</v>
       </c>
       <c r="BB54" t="n">
-        <v>0.0000000000216890758657768</v>
+        <v>0.0000000000217446739968115</v>
       </c>
       <c r="BC54" t="n">
         <v>2</v>
       </c>
       <c r="BD54" t="n">
-        <v>50.7186551899506</v>
+        <v>50.8115193861355</v>
       </c>
       <c r="BE54" t="n">
         <v>2</v>
       </c>
       <c r="BF54" t="n">
-        <v>0.0000000026911068783469</v>
+        <v>0.00000000170005564181356</v>
       </c>
       <c r="BG54" t="n">
         <v>2</v>
       </c>
       <c r="BH54" t="n">
-        <v>31.5988223814265</v>
+        <v>28.4592663566299</v>
       </c>
       <c r="BI54" t="n">
         <v>2</v>
       </c>
       <c r="BJ54" t="n">
-        <v>0.000000144547436050453</v>
+        <v>0.0000000758504909115589</v>
       </c>
       <c r="BK54" t="n">
         <v>2</v>
       </c>
       <c r="BL54" t="n">
-        <v>0.00000000453512802072077</v>
+        <v>0.00000000266335577305971</v>
       </c>
       <c r="BM54" t="n">
         <v>2</v>
       </c>
       <c r="BN54" t="n">
-        <v>0.0000000026911068783469</v>
+        <v>0.00000000170005564181356</v>
       </c>
       <c r="BO54" t="n">
         <v>2</v>
       </c>
       <c r="BP54" t="n">
-        <v>0.0000000000387298931123559</v>
+        <v>0.0000000000230697866312098</v>
       </c>
       <c r="BQ54" t="n">
         <v>2</v>
       </c>
       <c r="BR54" t="n">
-        <v>54.6175737156435</v>
+        <v>50.6575494675009</v>
       </c>
       <c r="BS54" t="n">
         <v>2</v>
@@ -16134,7 +16134,7 @@
         <v>70.8950748327232</v>
       </c>
       <c r="CQ54" t="n">
-        <v>1.32805257719281</v>
+        <v>70.2632529937905</v>
       </c>
     </row>
     <row r="55">
@@ -16274,79 +16274,79 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>31.6616520343489</v>
+        <v>31.603773814517</v>
       </c>
       <c r="AU55" t="n">
         <v>2</v>
       </c>
       <c r="AV55" t="n">
-        <v>0.000000088144713399139</v>
+        <v>0.0000000881874184191494</v>
       </c>
       <c r="AW55" t="n">
         <v>2</v>
       </c>
       <c r="AX55" t="n">
-        <v>0.00000000278628374943035</v>
+        <v>0.0000000027927603552351</v>
       </c>
       <c r="AY55" t="n">
         <v>2</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0.00000000156723528892629</v>
+        <v>0.0000000015733745858041</v>
       </c>
       <c r="BA55" t="n">
         <v>2</v>
       </c>
       <c r="BB55" t="n">
-        <v>0.0000000000217081211850509</v>
+        <v>0.0000000000217635058270547</v>
       </c>
       <c r="BC55" t="n">
         <v>2</v>
       </c>
       <c r="BD55" t="n">
-        <v>50.7186330387881</v>
+        <v>50.8115554323251</v>
       </c>
       <c r="BE55" t="n">
         <v>2</v>
       </c>
       <c r="BF55" t="n">
-        <v>0.00000000269574512916617</v>
+        <v>0.00000000170054333347041</v>
       </c>
       <c r="BG55" t="n">
         <v>2</v>
       </c>
       <c r="BH55" t="n">
-        <v>31.6121459234839</v>
+        <v>28.4594747994881</v>
       </c>
       <c r="BI55" t="n">
         <v>2</v>
       </c>
       <c r="BJ55" t="n">
-        <v>0.000000144869702297104</v>
+        <v>0.0000000758835599546854</v>
       </c>
       <c r="BK55" t="n">
         <v>2</v>
       </c>
       <c r="BL55" t="n">
-        <v>0.00000000454414273655092</v>
+        <v>0.00000000266449026208358</v>
       </c>
       <c r="BM55" t="n">
         <v>2</v>
       </c>
       <c r="BN55" t="n">
-        <v>0.00000000269574512916617</v>
+        <v>0.00000000170054333347041</v>
       </c>
       <c r="BO55" t="n">
         <v>2</v>
       </c>
       <c r="BP55" t="n">
-        <v>0.0000000000387999565080806</v>
+        <v>0.000000000023075702462425</v>
       </c>
       <c r="BQ55" t="n">
         <v>2</v>
       </c>
       <c r="BR55" t="n">
-        <v>54.6312830672751</v>
+        <v>50.6540018511437</v>
       </c>
       <c r="BS55" t="n">
         <v>2</v>
@@ -16421,7 +16421,7 @@
         <v>70.9794498213257</v>
       </c>
       <c r="CQ55" t="n">
-        <v>0.996372099667958</v>
+        <v>70.2932598737079</v>
       </c>
     </row>
     <row r="56">
@@ -16561,79 +16561,79 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>31.6584145352532</v>
+        <v>31.6001605932485</v>
       </c>
       <c r="AU56" t="n">
         <v>2</v>
       </c>
       <c r="AV56" t="n">
-        <v>0.0000000882150971551414</v>
+        <v>0.0000000882570528892706</v>
       </c>
       <c r="AW56" t="n">
         <v>2</v>
       </c>
       <c r="AX56" t="n">
-        <v>0.00000000278876775620689</v>
+        <v>0.00000000279525936674378</v>
       </c>
       <c r="AY56" t="n">
         <v>2</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0.00000000156862280449324</v>
+        <v>0.00000000157479823105498</v>
       </c>
       <c r="BA56" t="n">
         <v>2</v>
       </c>
       <c r="BB56" t="n">
-        <v>0.0000000000217271665043249</v>
+        <v>0.0000000000217823376572979</v>
       </c>
       <c r="BC56" t="n">
         <v>2</v>
       </c>
       <c r="BD56" t="n">
-        <v>50.7186108876256</v>
+        <v>50.8115914785147</v>
       </c>
       <c r="BE56" t="n">
         <v>2</v>
       </c>
       <c r="BF56" t="n">
-        <v>0.00000000270038337998544</v>
+        <v>0.00000000170103102512727</v>
       </c>
       <c r="BG56" t="n">
         <v>2</v>
       </c>
       <c r="BH56" t="n">
-        <v>31.6254694655414</v>
+        <v>28.4596832423463</v>
       </c>
       <c r="BI56" t="n">
         <v>2</v>
       </c>
       <c r="BJ56" t="n">
-        <v>0.000000145191968543755</v>
+        <v>0.0000000759166289978119</v>
       </c>
       <c r="BK56" t="n">
         <v>2</v>
       </c>
       <c r="BL56" t="n">
-        <v>0.00000000455315745238107</v>
+        <v>0.00000000266562475110746</v>
       </c>
       <c r="BM56" t="n">
         <v>2</v>
       </c>
       <c r="BN56" t="n">
-        <v>0.00000000270038337998544</v>
+        <v>0.00000000170103102512727</v>
       </c>
       <c r="BO56" t="n">
         <v>2</v>
       </c>
       <c r="BP56" t="n">
-        <v>0.0000000000388700199038054</v>
+        <v>0.0000000000230816182936401</v>
       </c>
       <c r="BQ56" t="n">
         <v>2</v>
       </c>
       <c r="BR56" t="n">
-        <v>54.6449924189067</v>
+        <v>50.6504542347866</v>
       </c>
       <c r="BS56" t="n">
         <v>2</v>
@@ -16708,7 +16708,7 @@
         <v>71.2170026148858</v>
       </c>
       <c r="CQ56" t="n">
-        <v>0.661398907611316</v>
+        <v>70.0608863168451</v>
       </c>
     </row>
     <row r="57">
@@ -16848,79 +16848,79 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>31.6551770361677</v>
+        <v>31.5965473719915</v>
       </c>
       <c r="AU57" t="n">
         <v>2</v>
       </c>
       <c r="AV57" t="n">
-        <v>0.0000000882854809109201</v>
+        <v>0.0000000883266873591705</v>
       </c>
       <c r="AW57" t="n">
         <v>2</v>
       </c>
       <c r="AX57" t="n">
-        <v>0.00000000279125176297553</v>
+        <v>0.00000000279775837824453</v>
       </c>
       <c r="AY57" t="n">
         <v>2</v>
       </c>
       <c r="AZ57" t="n">
-        <v>0.00000000157001032005578</v>
+        <v>0.00000000157622187630134</v>
       </c>
       <c r="BA57" t="n">
         <v>2</v>
       </c>
       <c r="BB57" t="n">
-        <v>0.0000000000217462118235384</v>
+        <v>0.0000000000218011694874812</v>
       </c>
       <c r="BC57" t="n">
         <v>2</v>
       </c>
       <c r="BD57" t="n">
-        <v>50.7185887364631</v>
+        <v>50.8116275247041</v>
       </c>
       <c r="BE57" t="n">
         <v>2</v>
       </c>
       <c r="BF57" t="n">
-        <v>0.00000000270502163078996</v>
+        <v>0.00000000170151871678257</v>
       </c>
       <c r="BG57" t="n">
         <v>2</v>
       </c>
       <c r="BH57" t="n">
-        <v>31.6387930075564</v>
+        <v>28.4598916852038</v>
       </c>
       <c r="BI57" t="n">
         <v>2</v>
       </c>
       <c r="BJ57" t="n">
-        <v>0.000000145514234789381</v>
+        <v>0.0000000759496980408333</v>
       </c>
       <c r="BK57" t="n">
         <v>2</v>
       </c>
       <c r="BL57" t="n">
-        <v>0.00000000456217216818257</v>
+        <v>0.00000000266675924012772</v>
       </c>
       <c r="BM57" t="n">
         <v>2</v>
       </c>
       <c r="BN57" t="n">
-        <v>0.00000000270502163078996</v>
+        <v>0.00000000170151871678257</v>
       </c>
       <c r="BO57" t="n">
         <v>2</v>
       </c>
       <c r="BP57" t="n">
-        <v>0.0000000000389400832993074</v>
+        <v>0.0000000000230875341248365</v>
       </c>
       <c r="BQ57" t="n">
         <v>2</v>
       </c>
       <c r="BR57" t="n">
-        <v>54.6587017704947</v>
+        <v>50.6469066184408</v>
       </c>
       <c r="BS57" t="n">
         <v>2</v>
@@ -16995,7 +16995,7 @@
         <v>71.3142111679424</v>
       </c>
       <c r="CQ57" t="n">
-        <v>0.328727630451998</v>
+        <v>69.9630967609147</v>
       </c>
     </row>
     <row r="58">
@@ -17135,79 +17135,79 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>31.6525870368809</v>
+        <v>31.5936567949652</v>
       </c>
       <c r="AU58" t="n">
         <v>2</v>
       </c>
       <c r="AV58" t="n">
-        <v>0.0000000883417879159457</v>
+        <v>0.0000000883823949354889</v>
       </c>
       <c r="AW58" t="n">
         <v>2</v>
       </c>
       <c r="AX58" t="n">
-        <v>0.00000000279323896840466</v>
+        <v>0.00000000279975758745942</v>
       </c>
       <c r="AY58" t="n">
         <v>2</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0.00000000157112033251375</v>
+        <v>0.00000000157736079250657</v>
       </c>
       <c r="BA58" t="n">
         <v>2</v>
       </c>
       <c r="BB58" t="n">
-        <v>0.0000000000217614480790182</v>
+        <v>0.0000000000218162349517356</v>
       </c>
       <c r="BC58" t="n">
         <v>2</v>
       </c>
       <c r="BD58" t="n">
-        <v>50.718571015533</v>
+        <v>50.8116563616559</v>
       </c>
       <c r="BE58" t="n">
         <v>2</v>
       </c>
       <c r="BF58" t="n">
-        <v>0.00000000270873223146012</v>
+        <v>0.0000000017019088701096</v>
       </c>
       <c r="BG58" t="n">
         <v>2</v>
       </c>
       <c r="BH58" t="n">
-        <v>31.6494518412447</v>
+        <v>28.4600584394911</v>
       </c>
       <c r="BI58" t="n">
         <v>2</v>
       </c>
       <c r="BJ58" t="n">
-        <v>0.000000145772047787726</v>
+        <v>0.0000000759761532754397</v>
       </c>
       <c r="BK58" t="n">
         <v>2</v>
       </c>
       <c r="BL58" t="n">
-        <v>0.00000000456938394087534</v>
+        <v>0.00000000266766683135043</v>
       </c>
       <c r="BM58" t="n">
         <v>2</v>
       </c>
       <c r="BN58" t="n">
-        <v>0.00000000270873223146012</v>
+        <v>0.0000000017019088701096</v>
       </c>
       <c r="BO58" t="n">
         <v>2</v>
       </c>
       <c r="BP58" t="n">
-        <v>0.0000000000389961340161099</v>
+        <v>0.0000000000230922667898274</v>
       </c>
       <c r="BQ58" t="n">
         <v>2</v>
       </c>
       <c r="BR58" t="n">
-        <v>54.6696692518435</v>
+        <v>50.6440685253438</v>
       </c>
       <c r="BS58" t="n">
         <v>2</v>
@@ -17282,7 +17282,7 @@
         <v>71.9938705502804</v>
       </c>
       <c r="CQ58" t="n">
-        <v>0.062921956223518</v>
+        <v>69.937693575711</v>
       </c>
     </row>
     <row r="59">
@@ -17422,79 +17422,79 @@
         <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>31.6493495377851</v>
+        <v>31.5900435736968</v>
       </c>
       <c r="AU59" t="n">
         <v>2</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.0000000884121716719481</v>
+        <v>0.0000000884520294056101</v>
       </c>
       <c r="AW59" t="n">
         <v>2</v>
       </c>
       <c r="AX59" t="n">
-        <v>0.0000000027957229751812</v>
+        <v>0.00000000280225659896811</v>
       </c>
       <c r="AY59" t="n">
         <v>2</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0.0000000015725078480807</v>
+        <v>0.00000000157878443775745</v>
       </c>
       <c r="BA59" t="n">
         <v>2</v>
       </c>
       <c r="BB59" t="n">
-        <v>0.0000000000217804933982923</v>
+        <v>0.0000000000218350667819788</v>
       </c>
       <c r="BC59" t="n">
         <v>2</v>
       </c>
       <c r="BD59" t="n">
-        <v>50.7185488643705</v>
+        <v>50.8116924078454</v>
       </c>
       <c r="BE59" t="n">
         <v>2</v>
       </c>
       <c r="BF59" t="n">
-        <v>0.00000000271337048227939</v>
+        <v>0.00000000170239656176645</v>
       </c>
       <c r="BG59" t="n">
         <v>2</v>
       </c>
       <c r="BH59" t="n">
-        <v>31.6627753833022</v>
+        <v>28.4602668823493</v>
       </c>
       <c r="BI59" t="n">
         <v>2</v>
       </c>
       <c r="BJ59" t="n">
-        <v>0.000000146094314034377</v>
+        <v>0.0000000760092223185662</v>
       </c>
       <c r="BK59" t="n">
         <v>2</v>
       </c>
       <c r="BL59" t="n">
-        <v>0.00000000457839865670549</v>
+        <v>0.0000000026688013203743</v>
       </c>
       <c r="BM59" t="n">
         <v>2</v>
       </c>
       <c r="BN59" t="n">
-        <v>0.00000000271337048227939</v>
+        <v>0.00000000170239656176645</v>
       </c>
       <c r="BO59" t="n">
         <v>2</v>
       </c>
       <c r="BP59" t="n">
-        <v>0.0000000000390661974118346</v>
+        <v>0.0000000000230981826210426</v>
       </c>
       <c r="BQ59" t="n">
         <v>2</v>
       </c>
       <c r="BR59" t="n">
-        <v>54.6833786034751</v>
+        <v>50.6405209089866</v>
       </c>
       <c r="BS59" t="n">
         <v>2</v>
@@ -17569,7 +17569,7 @@
         <v>71.8298486127543</v>
       </c>
       <c r="CQ59" t="n">
-        <v>-0.269104328040459</v>
+        <v>69.7914787846502</v>
       </c>
     </row>
     <row r="60">
@@ -17709,79 +17709,79 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>31.6461120386894</v>
+        <v>31.5864303524283</v>
       </c>
       <c r="AU60" t="n">
         <v>2</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.0000000884825554279505</v>
+        <v>0.0000000885216638757313</v>
       </c>
       <c r="AW60" t="n">
         <v>2</v>
       </c>
       <c r="AX60" t="n">
-        <v>0.00000000279820698195773</v>
+        <v>0.00000000280475561047679</v>
       </c>
       <c r="AY60" t="n">
         <v>2</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0.00000000157389536364765</v>
+        <v>0.00000000158020808300834</v>
       </c>
       <c r="BA60" t="n">
         <v>2</v>
       </c>
       <c r="BB60" t="n">
-        <v>0.0000000000217995387175663</v>
+        <v>0.000000000021853898612222</v>
       </c>
       <c r="BC60" t="n">
         <v>2</v>
       </c>
       <c r="BD60" t="n">
-        <v>50.718526713208</v>
+        <v>50.811728454035</v>
       </c>
       <c r="BE60" t="n">
         <v>2</v>
       </c>
       <c r="BF60" t="n">
-        <v>0.00000000271800873309866</v>
+        <v>0.0000000017028842534233</v>
       </c>
       <c r="BG60" t="n">
         <v>2</v>
       </c>
       <c r="BH60" t="n">
-        <v>31.6760989253596</v>
+        <v>28.4604753252075</v>
       </c>
       <c r="BI60" t="n">
         <v>2</v>
       </c>
       <c r="BJ60" t="n">
-        <v>0.000000146416580281027</v>
+        <v>0.0000000760422913616927</v>
       </c>
       <c r="BK60" t="n">
         <v>2</v>
       </c>
       <c r="BL60" t="n">
-        <v>0.00000000458741337253564</v>
+        <v>0.00000000266993580939818</v>
       </c>
       <c r="BM60" t="n">
         <v>2</v>
       </c>
       <c r="BN60" t="n">
-        <v>0.00000000271800873309866</v>
+        <v>0.0000000017028842534233</v>
       </c>
       <c r="BO60" t="n">
         <v>2</v>
       </c>
       <c r="BP60" t="n">
-        <v>0.0000000000391362608075593</v>
+        <v>0.0000000000231040984522577</v>
       </c>
       <c r="BQ60" t="n">
         <v>2</v>
       </c>
       <c r="BR60" t="n">
-        <v>54.6970879551067</v>
+        <v>50.6369732926295</v>
       </c>
       <c r="BS60" t="n">
         <v>2</v>
@@ -17856,7 +17856,7 @@
         <v>71.4663046194485</v>
       </c>
       <c r="CQ60" t="n">
-        <v>-0.600956880251707</v>
+        <v>69.7243060460882</v>
       </c>
     </row>
     <row r="61">
@@ -17996,79 +17996,79 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>31.642874539604</v>
+        <v>31.5828171311713</v>
       </c>
       <c r="AU61" t="n">
         <v>2</v>
       </c>
       <c r="AV61" t="n">
-        <v>0.0000000885529391837292</v>
+        <v>0.0000000885912983456312</v>
       </c>
       <c r="AW61" t="n">
         <v>2</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.00000000280069098872638</v>
+        <v>0.00000000280725462197754</v>
       </c>
       <c r="AY61" t="n">
         <v>2</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.00000000157528287921019</v>
+        <v>0.00000000158163172825469</v>
       </c>
       <c r="BA61" t="n">
         <v>2</v>
       </c>
       <c r="BB61" t="n">
-        <v>0.0000000000218185840367798</v>
+        <v>0.0000000000218727304424053</v>
       </c>
       <c r="BC61" t="n">
         <v>2</v>
       </c>
       <c r="BD61" t="n">
-        <v>50.7185045620456</v>
+        <v>50.8117645002245</v>
       </c>
       <c r="BE61" t="n">
         <v>2</v>
       </c>
       <c r="BF61" t="n">
-        <v>0.00000000272264698390319</v>
+        <v>0.0000000017033719450786</v>
       </c>
       <c r="BG61" t="n">
         <v>2</v>
       </c>
       <c r="BH61" t="n">
-        <v>31.6894224673747</v>
+        <v>28.4606837680651</v>
       </c>
       <c r="BI61" t="n">
         <v>2</v>
       </c>
       <c r="BJ61" t="n">
-        <v>0.000000146738846526654</v>
+        <v>0.0000000760753604047141</v>
       </c>
       <c r="BK61" t="n">
         <v>2</v>
       </c>
       <c r="BL61" t="n">
-        <v>0.00000000459642808833714</v>
+        <v>0.00000000267107029841845</v>
       </c>
       <c r="BM61" t="n">
         <v>2</v>
       </c>
       <c r="BN61" t="n">
-        <v>0.00000000272264698390319</v>
+        <v>0.0000000017033719450786</v>
       </c>
       <c r="BO61" t="n">
         <v>2</v>
       </c>
       <c r="BP61" t="n">
-        <v>0.0000000000392063242030613</v>
+        <v>0.000000000023110014283454</v>
       </c>
       <c r="BQ61" t="n">
         <v>2</v>
       </c>
       <c r="BR61" t="n">
-        <v>54.7107973066947</v>
+        <v>50.6334256762837</v>
       </c>
       <c r="BS61" t="n">
         <v>2</v>
@@ -18143,7 +18143,7 @@
         <v>71.0446874592459</v>
       </c>
       <c r="CQ61" t="n">
-        <v>-0.931949419691722</v>
+        <v>69.6005121290853</v>
       </c>
     </row>
     <row r="62">
@@ -18283,79 +18283,79 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>31.6402845403171</v>
+        <v>31.579926554145</v>
       </c>
       <c r="AU62" t="n">
         <v>2</v>
       </c>
       <c r="AV62" t="n">
-        <v>0.0000000886092461887549</v>
+        <v>0.0000000886470059219495</v>
       </c>
       <c r="AW62" t="n">
         <v>2</v>
       </c>
       <c r="AX62" t="n">
-        <v>0.0000000028026781941555</v>
+        <v>0.00000000280925383119243</v>
       </c>
       <c r="AY62" t="n">
         <v>2</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0.00000000157639289166816</v>
+        <v>0.00000000158277064445993</v>
       </c>
       <c r="BA62" t="n">
         <v>2</v>
       </c>
       <c r="BB62" t="n">
-        <v>0.0000000000218338202922596</v>
+        <v>0.0000000000218877959066597</v>
       </c>
       <c r="BC62" t="n">
         <v>2</v>
       </c>
       <c r="BD62" t="n">
-        <v>50.7184868411155</v>
+        <v>50.8117933371762</v>
       </c>
       <c r="BE62" t="n">
         <v>2</v>
       </c>
       <c r="BF62" t="n">
-        <v>0.00000000272635758457335</v>
+        <v>0.00000000170376209840563</v>
       </c>
       <c r="BG62" t="n">
         <v>2</v>
       </c>
       <c r="BH62" t="n">
-        <v>31.700081301063</v>
+        <v>28.4608505223523</v>
       </c>
       <c r="BI62" t="n">
         <v>2</v>
       </c>
       <c r="BJ62" t="n">
-        <v>0.000000146996659524999</v>
+        <v>0.0000000761018156393204</v>
       </c>
       <c r="BK62" t="n">
         <v>2</v>
       </c>
       <c r="BL62" t="n">
-        <v>0.00000000460363986102991</v>
+        <v>0.00000000267197788964115</v>
       </c>
       <c r="BM62" t="n">
         <v>2</v>
       </c>
       <c r="BN62" t="n">
-        <v>0.00000000272635758457335</v>
+        <v>0.00000000170376209840563</v>
       </c>
       <c r="BO62" t="n">
         <v>2</v>
       </c>
       <c r="BP62" t="n">
-        <v>0.0000000000392623749198638</v>
+        <v>0.000000000023114746948445</v>
       </c>
       <c r="BQ62" t="n">
         <v>2</v>
       </c>
       <c r="BR62" t="n">
-        <v>54.7217647880435</v>
+        <v>50.6305875831867</v>
       </c>
       <c r="BS62" t="n">
         <v>2</v>
@@ -18430,7 +18430,7 @@
         <v>70.7190793769564</v>
       </c>
       <c r="CQ62" t="n">
-        <v>-1.19706677059609</v>
+        <v>69.5471247741565</v>
       </c>
     </row>
     <row r="63">
@@ -18570,79 +18570,79 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>31.6370470412214</v>
+        <v>31.5763133328765</v>
       </c>
       <c r="AU63" t="n">
         <v>2</v>
       </c>
       <c r="AV63" t="n">
-        <v>0.0000000886796299447573</v>
+        <v>0.0000000887166403920707</v>
       </c>
       <c r="AW63" t="n">
         <v>2</v>
       </c>
       <c r="AX63" t="n">
-        <v>0.00000000280516220093204</v>
+        <v>0.00000000281175284270112</v>
       </c>
       <c r="AY63" t="n">
         <v>2</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0.00000000157778040723511</v>
+        <v>0.00000000158419428971081</v>
       </c>
       <c r="BA63" t="n">
         <v>2</v>
       </c>
       <c r="BB63" t="n">
-        <v>0.0000000000218528656115337</v>
+        <v>0.0000000000219066277369028</v>
       </c>
       <c r="BC63" t="n">
         <v>2</v>
       </c>
       <c r="BD63" t="n">
-        <v>50.718464689953</v>
+        <v>50.8118293833658</v>
       </c>
       <c r="BE63" t="n">
         <v>2</v>
       </c>
       <c r="BF63" t="n">
-        <v>0.00000000273099583539262</v>
+        <v>0.00000000170424979006249</v>
       </c>
       <c r="BG63" t="n">
         <v>2</v>
       </c>
       <c r="BH63" t="n">
-        <v>31.7134048431204</v>
+        <v>28.4610589652105</v>
       </c>
       <c r="BI63" t="n">
         <v>2</v>
       </c>
       <c r="BJ63" t="n">
-        <v>0.000000147318925771649</v>
+        <v>0.000000076134884682447</v>
       </c>
       <c r="BK63" t="n">
         <v>2</v>
       </c>
       <c r="BL63" t="n">
-        <v>0.00000000461265457686006</v>
+        <v>0.00000000267311237866503</v>
       </c>
       <c r="BM63" t="n">
         <v>2</v>
       </c>
       <c r="BN63" t="n">
-        <v>0.00000000273099583539262</v>
+        <v>0.00000000170424979006249</v>
       </c>
       <c r="BO63" t="n">
         <v>2</v>
       </c>
       <c r="BP63" t="n">
-        <v>0.0000000000393324383155886</v>
+        <v>0.0000000000231206627796601</v>
       </c>
       <c r="BQ63" t="n">
         <v>2</v>
       </c>
       <c r="BR63" t="n">
-        <v>54.7354741396751</v>
+        <v>50.6270399668295</v>
       </c>
       <c r="BS63" t="n">
         <v>2</v>
@@ -18717,7 +18717,7 @@
         <v>70.2140277591774</v>
       </c>
       <c r="CQ63" t="n">
-        <v>-1.52788731225934</v>
+        <v>69.4581539839269</v>
       </c>
     </row>
     <row r="64">
@@ -18857,79 +18857,79 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>31.633809542136</v>
+        <v>31.5727001116195</v>
       </c>
       <c r="AU64" t="n">
         <v>2</v>
       </c>
       <c r="AV64" t="n">
-        <v>0.000000088750013700536</v>
+        <v>0.0000000887862748619706</v>
       </c>
       <c r="AW64" t="n">
         <v>2</v>
       </c>
       <c r="AX64" t="n">
-        <v>0.00000000280764620770068</v>
+        <v>0.00000000281425185420186</v>
       </c>
       <c r="AY64" t="n">
         <v>2</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0.00000000157916792279765</v>
+        <v>0.00000000158561793495717</v>
       </c>
       <c r="BA64" t="n">
         <v>2</v>
       </c>
       <c r="BB64" t="n">
-        <v>0.0000000000218719109307472</v>
+        <v>0.0000000000219254595670861</v>
       </c>
       <c r="BC64" t="n">
         <v>2</v>
       </c>
       <c r="BD64" t="n">
-        <v>50.7184425387905</v>
+        <v>50.8118654295553</v>
       </c>
       <c r="BE64" t="n">
         <v>2</v>
       </c>
       <c r="BF64" t="n">
-        <v>0.00000000273563408619714</v>
+        <v>0.00000000170473748171779</v>
       </c>
       <c r="BG64" t="n">
         <v>2</v>
       </c>
       <c r="BH64" t="n">
-        <v>31.7267283851355</v>
+        <v>28.4612674080681</v>
       </c>
       <c r="BI64" t="n">
         <v>2</v>
       </c>
       <c r="BJ64" t="n">
-        <v>0.000000147641192017276</v>
+        <v>0.0000000761679537254684</v>
       </c>
       <c r="BK64" t="n">
         <v>2</v>
       </c>
       <c r="BL64" t="n">
-        <v>0.00000000462166929266156</v>
+        <v>0.00000000267424686768529</v>
       </c>
       <c r="BM64" t="n">
         <v>2</v>
       </c>
       <c r="BN64" t="n">
-        <v>0.00000000273563408619714</v>
+        <v>0.00000000170473748171779</v>
       </c>
       <c r="BO64" t="n">
         <v>2</v>
       </c>
       <c r="BP64" t="n">
-        <v>0.0000000000394025017110906</v>
+        <v>0.0000000000231265786108565</v>
       </c>
       <c r="BQ64" t="n">
         <v>2</v>
       </c>
       <c r="BR64" t="n">
-        <v>54.7491834912631</v>
+        <v>50.6234923504837</v>
       </c>
       <c r="BS64" t="n">
         <v>2</v>
@@ -19004,7 +19004,7 @@
         <v>69.6712804929638</v>
       </c>
       <c r="CQ64" t="n">
-        <v>-1.85739245300529</v>
+        <v>69.3316203396209</v>
       </c>
     </row>
     <row r="65">
@@ -19144,79 +19144,79 @@
         <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>31.6312195428491</v>
+        <v>31.5698095345932</v>
       </c>
       <c r="AU65" t="n">
         <v>2</v>
       </c>
       <c r="AV65" t="n">
-        <v>0.0000000888063207055616</v>
+        <v>0.0000000888419824382889</v>
       </c>
       <c r="AW65" t="n">
         <v>2</v>
       </c>
       <c r="AX65" t="n">
-        <v>0.00000000280963341312981</v>
+        <v>0.00000000281625106341675</v>
       </c>
       <c r="AY65" t="n">
         <v>2</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0.00000000158027793525562</v>
+        <v>0.0000000015867568511624</v>
       </c>
       <c r="BA65" t="n">
         <v>2</v>
       </c>
       <c r="BB65" t="n">
-        <v>0.000000000021887147186227</v>
+        <v>0.0000000000219405250313406</v>
       </c>
       <c r="BC65" t="n">
         <v>2</v>
       </c>
       <c r="BD65" t="n">
-        <v>50.7184248178604</v>
+        <v>50.811894266507</v>
       </c>
       <c r="BE65" t="n">
         <v>2</v>
       </c>
       <c r="BF65" t="n">
-        <v>0.0000000027393446868673</v>
+        <v>0.00000000170512763504482</v>
       </c>
       <c r="BG65" t="n">
         <v>2</v>
       </c>
       <c r="BH65" t="n">
-        <v>31.7373872188237</v>
+        <v>28.4614341623553</v>
       </c>
       <c r="BI65" t="n">
         <v>2</v>
       </c>
       <c r="BJ65" t="n">
-        <v>0.000000147899005015621</v>
+        <v>0.0000000761944089600747</v>
       </c>
       <c r="BK65" t="n">
         <v>2</v>
       </c>
       <c r="BL65" t="n">
-        <v>0.00000000462888106535433</v>
+        <v>0.000000002675154458908</v>
       </c>
       <c r="BM65" t="n">
         <v>2</v>
       </c>
       <c r="BN65" t="n">
-        <v>0.0000000027393446868673</v>
+        <v>0.00000000170512763504482</v>
       </c>
       <c r="BO65" t="n">
         <v>2</v>
       </c>
       <c r="BP65" t="n">
-        <v>0.0000000000394585524278931</v>
+        <v>0.0000000000231313112758474</v>
       </c>
       <c r="BQ65" t="n">
         <v>2</v>
       </c>
       <c r="BR65" t="n">
-        <v>54.760150972612</v>
+        <v>50.6206542573867</v>
       </c>
       <c r="BS65" t="n">
         <v>2</v>
@@ -19291,7 +19291,7 @@
         <v>69.2623703499134</v>
       </c>
       <c r="CQ65" t="n">
-        <v>-2.12127798007326</v>
+        <v>69.2553172086835</v>
       </c>
     </row>
     <row r="66">
@@ -19431,79 +19431,79 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>31.6279820437534</v>
+        <v>31.5661963133247</v>
       </c>
       <c r="AU66" t="n">
         <v>2</v>
       </c>
       <c r="AV66" t="n">
-        <v>0.000000088876704461564</v>
+        <v>0.0000000889116169084102</v>
       </c>
       <c r="AW66" t="n">
         <v>2</v>
       </c>
       <c r="AX66" t="n">
-        <v>0.00000000281211741990635</v>
+        <v>0.00000000281875007492544</v>
       </c>
       <c r="AY66" t="n">
         <v>2</v>
       </c>
       <c r="AZ66" t="n">
-        <v>0.00000000158166545082257</v>
+        <v>0.00000000158818049641328</v>
       </c>
       <c r="BA66" t="n">
         <v>2</v>
       </c>
       <c r="BB66" t="n">
-        <v>0.000000000021906192505501</v>
+        <v>0.0000000000219593568615837</v>
       </c>
       <c r="BC66" t="n">
         <v>2</v>
       </c>
       <c r="BD66" t="n">
-        <v>50.7184026666979</v>
+        <v>50.8119303126966</v>
       </c>
       <c r="BE66" t="n">
         <v>2</v>
       </c>
       <c r="BF66" t="n">
-        <v>0.00000000274398293768657</v>
+        <v>0.00000000170561532670167</v>
       </c>
       <c r="BG66" t="n">
         <v>2</v>
       </c>
       <c r="BH66" t="n">
-        <v>31.7507107608812</v>
+        <v>28.4616426052135</v>
       </c>
       <c r="BI66" t="n">
         <v>2</v>
       </c>
       <c r="BJ66" t="n">
-        <v>0.000000148221271262271</v>
+        <v>0.0000000762274780032012</v>
       </c>
       <c r="BK66" t="n">
         <v>2</v>
       </c>
       <c r="BL66" t="n">
-        <v>0.00000000463789578118448</v>
+        <v>0.00000000267628894793187</v>
       </c>
       <c r="BM66" t="n">
         <v>2</v>
       </c>
       <c r="BN66" t="n">
-        <v>0.00000000274398293768657</v>
+        <v>0.00000000170561532670167</v>
       </c>
       <c r="BO66" t="n">
         <v>2</v>
       </c>
       <c r="BP66" t="n">
-        <v>0.0000000000395286158236178</v>
+        <v>0.0000000000231372271070625</v>
       </c>
       <c r="BQ66" t="n">
         <v>2</v>
       </c>
       <c r="BR66" t="n">
-        <v>54.7738603242436</v>
+        <v>50.6171066410296</v>
       </c>
       <c r="BS66" t="n">
         <v>2</v>
@@ -19578,7 +19578,7 @@
         <v>68.7626479206187</v>
       </c>
       <c r="CQ66" t="n">
-        <v>-2.45120420176776</v>
+        <v>69.1713044954602</v>
       </c>
     </row>
     <row r="67">
@@ -19718,79 +19718,79 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>31.6247445446577</v>
+        <v>31.5625830920562</v>
       </c>
       <c r="AU67" t="n">
         <v>2</v>
       </c>
       <c r="AV67" t="n">
-        <v>0.0000000889470882175664</v>
+        <v>0.0000000889812513785314</v>
       </c>
       <c r="AW67" t="n">
         <v>2</v>
       </c>
       <c r="AX67" t="n">
-        <v>0.00000000281460142668289</v>
+        <v>0.00000000282124908643413</v>
       </c>
       <c r="AY67" t="n">
         <v>2</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0.00000000158305296638952</v>
+        <v>0.00000000158960414166417</v>
       </c>
       <c r="BA67" t="n">
         <v>2</v>
       </c>
       <c r="BB67" t="n">
-        <v>0.0000000000219252378247751</v>
+        <v>0.0000000000219781886918269</v>
       </c>
       <c r="BC67" t="n">
         <v>2</v>
       </c>
       <c r="BD67" t="n">
-        <v>50.7183805155354</v>
+        <v>50.8119663588862</v>
       </c>
       <c r="BE67" t="n">
         <v>2</v>
       </c>
       <c r="BF67" t="n">
-        <v>0.00000000274862118850584</v>
+        <v>0.00000000170610301835852</v>
       </c>
       <c r="BG67" t="n">
         <v>2</v>
       </c>
       <c r="BH67" t="n">
-        <v>31.7640343029386</v>
+        <v>28.4618510480717</v>
       </c>
       <c r="BI67" t="n">
         <v>2</v>
       </c>
       <c r="BJ67" t="n">
-        <v>0.000000148543537508922</v>
+        <v>0.0000000762605470463277</v>
       </c>
       <c r="BK67" t="n">
         <v>2</v>
       </c>
       <c r="BL67" t="n">
-        <v>0.00000000464691049701463</v>
+        <v>0.00000000267742343695575</v>
       </c>
       <c r="BM67" t="n">
         <v>2</v>
       </c>
       <c r="BN67" t="n">
-        <v>0.00000000274862118850584</v>
+        <v>0.00000000170610301835852</v>
       </c>
       <c r="BO67" t="n">
         <v>2</v>
       </c>
       <c r="BP67" t="n">
-        <v>0.0000000000395986792193425</v>
+        <v>0.0000000000231431429382777</v>
       </c>
       <c r="BQ67" t="n">
         <v>2</v>
       </c>
       <c r="BR67" t="n">
-        <v>54.7875696758751</v>
+        <v>50.6135590246725</v>
       </c>
       <c r="BS67" t="n">
         <v>2</v>
@@ -19865,7 +19865,7 @@
         <v>68.2992283594795</v>
       </c>
       <c r="CQ67" t="n">
-        <v>-2.78234864553828</v>
+        <v>69.1240405704666</v>
       </c>
     </row>
     <row r="68">
@@ -20005,79 +20005,79 @@
         <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>31.6215070455723</v>
+        <v>31.5589698707992</v>
       </c>
       <c r="AU68" t="n">
         <v>2</v>
       </c>
       <c r="AV68" t="n">
-        <v>0.0000000890174719733451</v>
+        <v>0.0000000890508858484312</v>
       </c>
       <c r="AW68" t="n">
         <v>2</v>
       </c>
       <c r="AX68" t="n">
-        <v>0.00000000281708543345153</v>
+        <v>0.00000000282374809793487</v>
       </c>
       <c r="AY68" t="n">
         <v>2</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0.00000000158444048195206</v>
+        <v>0.00000000159102778691052</v>
       </c>
       <c r="BA68" t="n">
         <v>2</v>
       </c>
       <c r="BB68" t="n">
-        <v>0.0000000000219442831439886</v>
+        <v>0.0000000000219970205220102</v>
       </c>
       <c r="BC68" t="n">
         <v>2</v>
       </c>
       <c r="BD68" t="n">
-        <v>50.7183583643729</v>
+        <v>50.8120024050756</v>
       </c>
       <c r="BE68" t="n">
         <v>2</v>
       </c>
       <c r="BF68" t="n">
-        <v>0.00000000275325943931037</v>
+        <v>0.00000000170659071001382</v>
       </c>
       <c r="BG68" t="n">
         <v>2</v>
       </c>
       <c r="BH68" t="n">
-        <v>31.7773578449537</v>
+        <v>28.4620594909293</v>
       </c>
       <c r="BI68" t="n">
         <v>2</v>
       </c>
       <c r="BJ68" t="n">
-        <v>0.000000148865803754548</v>
+        <v>0.0000000762936160893491</v>
       </c>
       <c r="BK68" t="n">
         <v>2</v>
       </c>
       <c r="BL68" t="n">
-        <v>0.00000000465592521281613</v>
+        <v>0.00000000267855792597602</v>
       </c>
       <c r="BM68" t="n">
         <v>2</v>
       </c>
       <c r="BN68" t="n">
-        <v>0.00000000275325943931037</v>
+        <v>0.00000000170659071001382</v>
       </c>
       <c r="BO68" t="n">
         <v>2</v>
       </c>
       <c r="BP68" t="n">
-        <v>0.0000000000396687426148445</v>
+        <v>0.000000000023149058769474</v>
       </c>
       <c r="BQ68" t="n">
         <v>2</v>
       </c>
       <c r="BR68" t="n">
-        <v>54.8012790274632</v>
+        <v>50.6100114083266</v>
       </c>
       <c r="BS68" t="n">
         <v>2</v>
@@ -20152,7 +20152,7 @@
         <v>67.7776395316989</v>
       </c>
       <c r="CQ68" t="n">
-        <v>-3.11093774024989</v>
+        <v>69.0180024525343</v>
       </c>
     </row>
     <row r="69">
@@ -20292,79 +20292,79 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>31.6189170462854</v>
+        <v>31.5560792937729</v>
       </c>
       <c r="AU69" t="n">
         <v>2</v>
       </c>
       <c r="AV69" t="n">
-        <v>0.0000000890737789783708</v>
+        <v>0.0000000891065934247496</v>
       </c>
       <c r="AW69" t="n">
         <v>2</v>
       </c>
       <c r="AX69" t="n">
-        <v>0.00000000281907263888066</v>
+        <v>0.00000000282574730714977</v>
       </c>
       <c r="AY69" t="n">
         <v>2</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.00000000158555049441003</v>
+        <v>0.00000000159216670311576</v>
       </c>
       <c r="BA69" t="n">
         <v>2</v>
       </c>
       <c r="BB69" t="n">
-        <v>0.0000000000219595193994684</v>
+        <v>0.0000000000220120859862646</v>
       </c>
       <c r="BC69" t="n">
         <v>2</v>
       </c>
       <c r="BD69" t="n">
-        <v>50.7183406434429</v>
+        <v>50.8120312420274</v>
       </c>
       <c r="BE69" t="n">
         <v>2</v>
       </c>
       <c r="BF69" t="n">
-        <v>0.00000000275697003998053</v>
+        <v>0.00000000170698086334085</v>
       </c>
       <c r="BG69" t="n">
         <v>2</v>
       </c>
       <c r="BH69" t="n">
-        <v>31.788016678642</v>
+        <v>28.4622262452165</v>
       </c>
       <c r="BI69" t="n">
         <v>2</v>
       </c>
       <c r="BJ69" t="n">
-        <v>0.000000149123616752893</v>
+        <v>0.0000000763200713239555</v>
       </c>
       <c r="BK69" t="n">
         <v>2</v>
       </c>
       <c r="BL69" t="n">
-        <v>0.0000000046631369855089</v>
+        <v>0.00000000267946551719872</v>
       </c>
       <c r="BM69" t="n">
         <v>2</v>
       </c>
       <c r="BN69" t="n">
-        <v>0.00000000275697003998053</v>
+        <v>0.00000000170698086334085</v>
       </c>
       <c r="BO69" t="n">
         <v>2</v>
       </c>
       <c r="BP69" t="n">
-        <v>0.000000000039724793331647</v>
+        <v>0.000000000023153791434465</v>
       </c>
       <c r="BQ69" t="n">
         <v>2</v>
       </c>
       <c r="BR69" t="n">
-        <v>54.812246508812</v>
+        <v>50.6071733152296</v>
       </c>
       <c r="BS69" t="n">
         <v>2</v>
@@ -20439,7 +20439,7 @@
         <v>67.3688873171131</v>
       </c>
       <c r="CQ69" t="n">
-        <v>-3.37388596019147</v>
+        <v>68.9416991839576</v>
       </c>
     </row>
     <row r="70">
@@ -20579,79 +20579,79 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>31.6156795471897</v>
+        <v>31.5524660725044</v>
       </c>
       <c r="AU70" t="n">
         <v>2</v>
       </c>
       <c r="AV70" t="n">
-        <v>0.0000000891441627343732</v>
+        <v>0.0000000891762278948708</v>
       </c>
       <c r="AW70" t="n">
         <v>2</v>
       </c>
       <c r="AX70" t="n">
-        <v>0.0000000028215566456572</v>
+        <v>0.00000000282824631865845</v>
       </c>
       <c r="AY70" t="n">
         <v>2</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0.00000000158693800997698</v>
+        <v>0.00000000159359034836664</v>
       </c>
       <c r="BA70" t="n">
         <v>2</v>
       </c>
       <c r="BB70" t="n">
-        <v>0.0000000000219785647187424</v>
+        <v>0.0000000000220309178165078</v>
       </c>
       <c r="BC70" t="n">
         <v>2</v>
       </c>
       <c r="BD70" t="n">
-        <v>50.7183184922803</v>
+        <v>50.812067288217</v>
       </c>
       <c r="BE70" t="n">
         <v>2</v>
       </c>
       <c r="BF70" t="n">
-        <v>0.0000000027616082907998</v>
+        <v>0.0000000017074685549977</v>
       </c>
       <c r="BG70" t="n">
         <v>2</v>
       </c>
       <c r="BH70" t="n">
-        <v>31.8013402206994</v>
+        <v>28.4624346880747</v>
       </c>
       <c r="BI70" t="n">
         <v>2</v>
       </c>
       <c r="BJ70" t="n">
-        <v>0.000000149445882999544</v>
+        <v>0.000000076353140367082</v>
       </c>
       <c r="BK70" t="n">
         <v>2</v>
       </c>
       <c r="BL70" t="n">
-        <v>0.00000000467215170133905</v>
+        <v>0.0000000026806000062226</v>
       </c>
       <c r="BM70" t="n">
         <v>2</v>
       </c>
       <c r="BN70" t="n">
-        <v>0.0000000027616082907998</v>
+        <v>0.0000000017074685549977</v>
       </c>
       <c r="BO70" t="n">
         <v>2</v>
       </c>
       <c r="BP70" t="n">
-        <v>0.0000000000397948567273717</v>
+        <v>0.0000000000231597072656801</v>
       </c>
       <c r="BQ70" t="n">
         <v>2</v>
       </c>
       <c r="BR70" t="n">
-        <v>54.8259558604436</v>
+        <v>50.6036256988725</v>
       </c>
       <c r="BS70" t="n">
         <v>2</v>
@@ -20726,7 +20726,7 @@
         <v>66.9461741150698</v>
       </c>
       <c r="CQ70" t="n">
-        <v>-3.70711750376379</v>
+        <v>68.9370503177701</v>
       </c>
     </row>
     <row r="71">
@@ -20866,79 +20866,79 @@
         <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>31.6124420480939</v>
+        <v>31.548852851236</v>
       </c>
       <c r="AU71" t="n">
         <v>2</v>
       </c>
       <c r="AV71" t="n">
-        <v>0.0000000892145464903756</v>
+        <v>0.000000089245862364992</v>
       </c>
       <c r="AW71" t="n">
         <v>2</v>
       </c>
       <c r="AX71" t="n">
-        <v>0.00000000282404065243373</v>
+        <v>0.00000000283074533016714</v>
       </c>
       <c r="AY71" t="n">
         <v>2</v>
       </c>
       <c r="AZ71" t="n">
-        <v>0.00000000158832552554393</v>
+        <v>0.00000000159501399361752</v>
       </c>
       <c r="BA71" t="n">
         <v>2</v>
       </c>
       <c r="BB71" t="n">
-        <v>0.0000000000219976100380165</v>
+        <v>0.000000000022049749646751</v>
       </c>
       <c r="BC71" t="n">
         <v>2</v>
       </c>
       <c r="BD71" t="n">
-        <v>50.7182963411178</v>
+        <v>50.8121033344065</v>
       </c>
       <c r="BE71" t="n">
         <v>2</v>
       </c>
       <c r="BF71" t="n">
-        <v>0.00000000276624654161907</v>
+        <v>0.00000000170795624665456</v>
       </c>
       <c r="BG71" t="n">
         <v>2</v>
       </c>
       <c r="BH71" t="n">
-        <v>31.8146637627568</v>
+        <v>28.4626431309329</v>
       </c>
       <c r="BI71" t="n">
         <v>2</v>
       </c>
       <c r="BJ71" t="n">
-        <v>0.000000149768149246195</v>
+        <v>0.0000000763862094102085</v>
       </c>
       <c r="BK71" t="n">
         <v>2</v>
       </c>
       <c r="BL71" t="n">
-        <v>0.0000000046811664171692</v>
+        <v>0.00000000268173449524647</v>
       </c>
       <c r="BM71" t="n">
         <v>2</v>
       </c>
       <c r="BN71" t="n">
-        <v>0.00000000276624654161907</v>
+        <v>0.00000000170795624665456</v>
       </c>
       <c r="BO71" t="n">
         <v>2</v>
       </c>
       <c r="BP71" t="n">
-        <v>0.0000000000398649201230965</v>
+        <v>0.0000000000231656230968953</v>
       </c>
       <c r="BQ71" t="n">
         <v>2</v>
       </c>
       <c r="BR71" t="n">
-        <v>54.8396652120752</v>
+        <v>50.6000780825154</v>
       </c>
       <c r="BS71" t="n">
         <v>2</v>
@@ -21013,7 +21013,7 @@
         <v>66.4516909776546</v>
       </c>
       <c r="CQ71" t="n">
-        <v>-4.03655807446515</v>
+        <v>68.8590396553008</v>
       </c>
     </row>
     <row r="72">
@@ -21153,79 +21153,79 @@
         <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>31.6092045490085</v>
+        <v>31.5452396299789</v>
       </c>
       <c r="AU72" t="n">
         <v>2</v>
       </c>
       <c r="AV72" t="n">
-        <v>0.0000000892849302461543</v>
+        <v>0.0000000893154968348919</v>
       </c>
       <c r="AW72" t="n">
         <v>2</v>
       </c>
       <c r="AX72" t="n">
-        <v>0.00000000282652465920238</v>
+        <v>0.00000000283324434166788</v>
       </c>
       <c r="AY72" t="n">
         <v>2</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0.00000000158971304110647</v>
+        <v>0.00000000159643763886388</v>
       </c>
       <c r="BA72" t="n">
         <v>2</v>
       </c>
       <c r="BB72" t="n">
-        <v>0.00000000002201665535723</v>
+        <v>0.0000000000220685814769343</v>
       </c>
       <c r="BC72" t="n">
         <v>2</v>
       </c>
       <c r="BD72" t="n">
-        <v>50.7182741899554</v>
+        <v>50.812139380596</v>
       </c>
       <c r="BE72" t="n">
         <v>2</v>
       </c>
       <c r="BF72" t="n">
-        <v>0.00000000277088479242359</v>
+        <v>0.00000000170844393830986</v>
       </c>
       <c r="BG72" t="n">
         <v>2</v>
       </c>
       <c r="BH72" t="n">
-        <v>31.8279873047719</v>
+        <v>28.4628515737905</v>
       </c>
       <c r="BI72" t="n">
         <v>2</v>
       </c>
       <c r="BJ72" t="n">
-        <v>0.000000150090415491821</v>
+        <v>0.0000000764192784532299</v>
       </c>
       <c r="BK72" t="n">
         <v>2</v>
       </c>
       <c r="BL72" t="n">
-        <v>0.0000000046901811329707</v>
+        <v>0.00000000268286898426674</v>
       </c>
       <c r="BM72" t="n">
         <v>2</v>
       </c>
       <c r="BN72" t="n">
-        <v>0.00000000277088479242359</v>
+        <v>0.00000000170844393830986</v>
       </c>
       <c r="BO72" t="n">
         <v>2</v>
       </c>
       <c r="BP72" t="n">
-        <v>0.0000000000399349835185985</v>
+        <v>0.0000000000231715389280916</v>
       </c>
       <c r="BQ72" t="n">
         <v>2</v>
       </c>
       <c r="BR72" t="n">
-        <v>54.8533745636632</v>
+        <v>50.5965304661695</v>
       </c>
       <c r="BS72" t="n">
         <v>2</v>
@@ -21300,7 +21300,7 @@
         <v>66.0415450295385</v>
       </c>
       <c r="CQ72" t="n">
-        <v>-4.37138622157241</v>
+        <v>68.8690626431847</v>
       </c>
     </row>
     <row r="73">
@@ -21440,79 +21440,79 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>31.6066145497217</v>
+        <v>31.5423490529527</v>
       </c>
       <c r="AU73" t="n">
         <v>2</v>
       </c>
       <c r="AV73" t="n">
-        <v>0.0000000893412372511799</v>
+        <v>0.0000000893712044112102</v>
       </c>
       <c r="AW73" t="n">
         <v>2</v>
       </c>
       <c r="AX73" t="n">
-        <v>0.0000000028285118646315</v>
+        <v>0.00000000283524355088278</v>
       </c>
       <c r="AY73" t="n">
         <v>2</v>
       </c>
       <c r="AZ73" t="n">
-        <v>0.00000000159082305356444</v>
+        <v>0.00000000159757655506911</v>
       </c>
       <c r="BA73" t="n">
         <v>2</v>
       </c>
       <c r="BB73" t="n">
-        <v>0.0000000000220318916127098</v>
+        <v>0.0000000000220836469411887</v>
       </c>
       <c r="BC73" t="n">
         <v>2</v>
       </c>
       <c r="BD73" t="n">
-        <v>50.7182564690253</v>
+        <v>50.8121682175477</v>
       </c>
       <c r="BE73" t="n">
         <v>2</v>
       </c>
       <c r="BF73" t="n">
-        <v>0.00000000277459539309375</v>
+        <v>0.00000000170883409163689</v>
       </c>
       <c r="BG73" t="n">
         <v>2</v>
       </c>
       <c r="BH73" t="n">
-        <v>31.8386461384602</v>
+        <v>28.4630183280777</v>
       </c>
       <c r="BI73" t="n">
         <v>2</v>
       </c>
       <c r="BJ73" t="n">
-        <v>0.000000150348228490166</v>
+        <v>0.0000000764457336878363</v>
       </c>
       <c r="BK73" t="n">
         <v>2</v>
       </c>
       <c r="BL73" t="n">
-        <v>0.00000000469739290566347</v>
+        <v>0.00000000268377657548945</v>
       </c>
       <c r="BM73" t="n">
         <v>2</v>
       </c>
       <c r="BN73" t="n">
-        <v>0.00000000277459539309375</v>
+        <v>0.00000000170883409163689</v>
       </c>
       <c r="BO73" t="n">
         <v>2</v>
       </c>
       <c r="BP73" t="n">
-        <v>0.000000000039991034235401</v>
+        <v>0.0000000000231762715930825</v>
       </c>
       <c r="BQ73" t="n">
         <v>2</v>
       </c>
       <c r="BR73" t="n">
-        <v>54.864342045012</v>
+        <v>50.5936923730725</v>
       </c>
       <c r="BS73" t="n">
         <v>2</v>
@@ -21587,7 +21587,7 @@
         <v>65.7204496173476</v>
       </c>
       <c r="CQ73" t="n">
-        <v>-4.64027569368659</v>
+        <v>68.8853144856677</v>
       </c>
     </row>
     <row r="74">
@@ -21727,79 +21727,79 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>31.6033770506259</v>
+        <v>31.5387358316842</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
       </c>
       <c r="AV74" t="n">
-        <v>0.0000000894116210071823</v>
+        <v>0.0000000894408388813315</v>
       </c>
       <c r="AW74" t="n">
         <v>2</v>
       </c>
       <c r="AX74" t="n">
-        <v>0.00000000283099587140804</v>
+        <v>0.00000000283774256239146</v>
       </c>
       <c r="AY74" t="n">
         <v>2</v>
       </c>
       <c r="AZ74" t="n">
-        <v>0.00000000159221056913139</v>
+        <v>0.00000000159900020032</v>
       </c>
       <c r="BA74" t="n">
         <v>2</v>
       </c>
       <c r="BB74" t="n">
-        <v>0.0000000000220509369319838</v>
+        <v>0.0000000000221024787714319</v>
       </c>
       <c r="BC74" t="n">
         <v>2</v>
       </c>
       <c r="BD74" t="n">
-        <v>50.7182343178628</v>
+        <v>50.8122042637373</v>
       </c>
       <c r="BE74" t="n">
         <v>2</v>
       </c>
       <c r="BF74" t="n">
-        <v>0.00000000277923364391302</v>
+        <v>0.00000000170932178329374</v>
       </c>
       <c r="BG74" t="n">
         <v>2</v>
       </c>
       <c r="BH74" t="n">
-        <v>31.8519696805176</v>
+        <v>28.4632267709359</v>
       </c>
       <c r="BI74" t="n">
         <v>2</v>
       </c>
       <c r="BJ74" t="n">
-        <v>0.000000150670494736817</v>
+        <v>0.0000000764788027309628</v>
       </c>
       <c r="BK74" t="n">
         <v>2</v>
       </c>
       <c r="BL74" t="n">
-        <v>0.00000000470640762149362</v>
+        <v>0.00000000268491106451332</v>
       </c>
       <c r="BM74" t="n">
         <v>2</v>
       </c>
       <c r="BN74" t="n">
-        <v>0.00000000277923364391302</v>
+        <v>0.00000000170932178329374</v>
       </c>
       <c r="BO74" t="n">
         <v>2</v>
       </c>
       <c r="BP74" t="n">
-        <v>0.0000000000400610976311257</v>
+        <v>0.0000000000231821874242977</v>
       </c>
       <c r="BQ74" t="n">
         <v>2</v>
       </c>
       <c r="BR74" t="n">
-        <v>54.8780513966436</v>
+        <v>50.5901447567154</v>
       </c>
       <c r="BS74" t="n">
         <v>2</v>
@@ -21874,7 +21874,7 @@
         <v>65.3744401645291</v>
       </c>
       <c r="CQ74" t="n">
-        <v>-4.98137698726505</v>
+        <v>68.9652528560952</v>
       </c>
     </row>
   </sheetData>
